--- a/src/Phoenix.Services/Reports/Templates/PlcReport_en.xlsx
+++ b/src/Phoenix.Services/Reports/Templates/PlcReport_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Projekty\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Desktop\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFF5A5-E5A2-449B-8DE0-C46D8FF65ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653044CF-4E41-458A-9710-26732CB97C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="5" r:id="rId1"/>
@@ -1200,1870 +1200,1870 @@
   </sheetPr>
   <dimension ref="A1:AJY378"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="961" width="9.6640625" style="1" customWidth="1"/>
-    <col min="962" max="962" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="961" width="9.7109375" style="1" customWidth="1"/>
+    <col min="962" max="962" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
     </row>
-    <row r="2" spans="1:1" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
     </row>
-    <row r="4" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
     </row>
-    <row r="5" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
     </row>
-    <row r="6" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
     </row>
-    <row r="7" spans="1:1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
     </row>
-    <row r="8" spans="1:1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43">
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32">
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="43">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="43">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32">
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="43">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32">
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="43">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="43">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="43">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="32">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="43">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="32">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="32">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="32">
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43">
         <v>130</v>
       </c>
     </row>
-    <row r="138" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="32">
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="32">
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="32">
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="43">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32">
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="32">
         <v>141</v>
       </c>
     </row>
-    <row r="149" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="43">
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="32">
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43">
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="32">
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="32">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43">
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="32">
         <v>149</v>
       </c>
     </row>
-    <row r="157" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43">
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="32">
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="32">
         <v>153</v>
       </c>
     </row>
-    <row r="161" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="43">
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="32">
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="43">
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="32">
         <v>157</v>
       </c>
     </row>
-    <row r="165" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="32">
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="43">
         <v>160</v>
       </c>
     </row>
-    <row r="168" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="32">
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="43">
         <v>162</v>
       </c>
     </row>
-    <row r="170" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="32">
         <v>163</v>
       </c>
     </row>
-    <row r="171" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>164</v>
       </c>
     </row>
-    <row r="172" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="32">
         <v>165</v>
       </c>
     </row>
-    <row r="173" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="43">
         <v>166</v>
       </c>
     </row>
-    <row r="174" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="32">
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="43">
         <v>168</v>
       </c>
     </row>
-    <row r="176" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="32">
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="32">
         <v>171</v>
       </c>
     </row>
-    <row r="179" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="43">
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="32">
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="43">
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32">
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="32">
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="43">
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32">
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="43">
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="32">
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>182</v>
       </c>
     </row>
-    <row r="190" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32">
         <v>183</v>
       </c>
     </row>
-    <row r="191" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="43">
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="32">
         <v>185</v>
       </c>
     </row>
-    <row r="193" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="43">
         <v>186</v>
       </c>
     </row>
-    <row r="194" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="32">
         <v>187</v>
       </c>
     </row>
-    <row r="195" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>188</v>
       </c>
     </row>
-    <row r="196" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32">
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="43">
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="32">
         <v>191</v>
       </c>
     </row>
-    <row r="199" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="43">
         <v>192</v>
       </c>
     </row>
-    <row r="200" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="32">
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="32">
         <v>195</v>
       </c>
     </row>
-    <row r="203" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="43">
         <v>196</v>
       </c>
     </row>
-    <row r="204" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="32">
         <v>197</v>
       </c>
     </row>
-    <row r="205" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="43">
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="32">
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="32">
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="43">
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="32">
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="43">
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="32">
         <v>205</v>
       </c>
     </row>
-    <row r="213" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="32">
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="43">
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="32">
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="43">
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="32">
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="32">
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="43">
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="32">
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="43">
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="32">
         <v>217</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>218</v>
       </c>
     </row>
-    <row r="226" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="32">
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="43">
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="32">
         <v>221</v>
       </c>
     </row>
-    <row r="229" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="43">
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="32">
         <v>223</v>
       </c>
     </row>
-    <row r="231" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>224</v>
       </c>
     </row>
-    <row r="232" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="32">
         <v>225</v>
       </c>
     </row>
-    <row r="233" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="43">
         <v>226</v>
       </c>
     </row>
-    <row r="234" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="32">
         <v>227</v>
       </c>
     </row>
-    <row r="235" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="43">
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="32">
         <v>229</v>
       </c>
     </row>
-    <row r="237" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="32">
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="43">
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="32">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="43">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="32">
         <v>235</v>
       </c>
     </row>
-    <row r="243" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>236</v>
       </c>
     </row>
-    <row r="244" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="32">
         <v>237</v>
       </c>
     </row>
-    <row r="245" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="43">
         <v>238</v>
       </c>
     </row>
-    <row r="246" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="32">
         <v>239</v>
       </c>
     </row>
-    <row r="247" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="43">
         <v>240</v>
       </c>
     </row>
-    <row r="248" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="32">
         <v>241</v>
       </c>
     </row>
-    <row r="249" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>242</v>
       </c>
     </row>
-    <row r="250" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="32">
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="43">
         <v>244</v>
       </c>
     </row>
-    <row r="252" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="32">
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="43">
         <v>246</v>
       </c>
     </row>
-    <row r="254" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="32">
         <v>247</v>
       </c>
     </row>
-    <row r="255" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="32">
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="43">
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="32">
         <v>251</v>
       </c>
     </row>
-    <row r="259" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="43">
         <v>252</v>
       </c>
     </row>
-    <row r="260" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="32">
         <v>253</v>
       </c>
     </row>
-    <row r="261" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>254</v>
       </c>
     </row>
-    <row r="262" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="32">
         <v>255</v>
       </c>
     </row>
-    <row r="263" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="43">
         <v>256</v>
       </c>
     </row>
-    <row r="264" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="32">
         <v>257</v>
       </c>
     </row>
-    <row r="265" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="43">
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="32">
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>260</v>
       </c>
     </row>
-    <row r="268" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="32">
         <v>261</v>
       </c>
     </row>
-    <row r="269" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="43">
         <v>262</v>
       </c>
     </row>
-    <row r="270" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="32">
         <v>263</v>
       </c>
     </row>
-    <row r="271" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="43">
         <v>264</v>
       </c>
     </row>
-    <row r="272" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="32">
         <v>265</v>
       </c>
     </row>
-    <row r="273" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="32">
         <v>267</v>
       </c>
     </row>
-    <row r="275" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="43">
         <v>268</v>
       </c>
     </row>
-    <row r="276" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="32">
         <v>269</v>
       </c>
     </row>
-    <row r="277" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="43">
         <v>270</v>
       </c>
     </row>
-    <row r="278" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="32">
         <v>271</v>
       </c>
     </row>
-    <row r="279" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>272</v>
       </c>
     </row>
-    <row r="280" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="32">
         <v>273</v>
       </c>
     </row>
-    <row r="281" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="43">
         <v>274</v>
       </c>
     </row>
-    <row r="282" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="32">
         <v>275</v>
       </c>
     </row>
-    <row r="283" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="43">
         <v>276</v>
       </c>
     </row>
-    <row r="284" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="32">
         <v>277</v>
       </c>
     </row>
-    <row r="285" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>278</v>
       </c>
     </row>
-    <row r="286" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="32">
         <v>279</v>
       </c>
     </row>
-    <row r="287" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="43">
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="32">
         <v>281</v>
       </c>
     </row>
-    <row r="289" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="43">
         <v>282</v>
       </c>
     </row>
-    <row r="290" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="32">
         <v>283</v>
       </c>
     </row>
-    <row r="291" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>284</v>
       </c>
     </row>
-    <row r="292" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="32">
         <v>285</v>
       </c>
     </row>
-    <row r="293" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="43">
         <v>286</v>
       </c>
     </row>
-    <row r="294" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="32">
         <v>287</v>
       </c>
     </row>
-    <row r="295" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="43">
         <v>288</v>
       </c>
     </row>
-    <row r="296" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="32">
         <v>289</v>
       </c>
     </row>
-    <row r="297" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>290</v>
       </c>
     </row>
-    <row r="298" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="32">
         <v>291</v>
       </c>
     </row>
-    <row r="299" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="43">
         <v>292</v>
       </c>
     </row>
-    <row r="300" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="32">
         <v>293</v>
       </c>
     </row>
-    <row r="301" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="43">
         <v>294</v>
       </c>
     </row>
-    <row r="302" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="32">
         <v>295</v>
       </c>
     </row>
-    <row r="303" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>296</v>
       </c>
     </row>
-    <row r="304" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="32">
         <v>297</v>
       </c>
     </row>
-    <row r="305" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="43">
         <v>298</v>
       </c>
     </row>
-    <row r="306" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="32">
         <v>299</v>
       </c>
     </row>
-    <row r="307" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="43">
         <v>300</v>
       </c>
     </row>
-    <row r="308" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="32">
         <v>301</v>
       </c>
     </row>
-    <row r="309" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>302</v>
       </c>
     </row>
-    <row r="310" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="32">
         <v>303</v>
       </c>
     </row>
-    <row r="311" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="43">
         <v>304</v>
       </c>
     </row>
-    <row r="312" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="32">
         <v>305</v>
       </c>
     </row>
-    <row r="313" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="43">
         <v>306</v>
       </c>
     </row>
-    <row r="314" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="32">
         <v>307</v>
       </c>
     </row>
-    <row r="315" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>308</v>
       </c>
     </row>
-    <row r="316" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="32">
         <v>309</v>
       </c>
     </row>
-    <row r="317" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="43">
         <v>310</v>
       </c>
     </row>
-    <row r="318" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="32">
         <v>311</v>
       </c>
     </row>
-    <row r="319" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="43">
         <v>312</v>
       </c>
     </row>
-    <row r="320" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="32">
         <v>313</v>
       </c>
     </row>
-    <row r="321" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>314</v>
       </c>
     </row>
-    <row r="322" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="32">
         <v>315</v>
       </c>
     </row>
-    <row r="323" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="43">
         <v>316</v>
       </c>
     </row>
-    <row r="324" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="32">
         <v>317</v>
       </c>
     </row>
-    <row r="325" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="43">
         <v>318</v>
       </c>
     </row>
-    <row r="326" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="32">
         <v>319</v>
       </c>
     </row>
-    <row r="327" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>320</v>
       </c>
     </row>
-    <row r="328" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="32">
         <v>321</v>
       </c>
     </row>
-    <row r="329" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="43">
         <v>322</v>
       </c>
     </row>
-    <row r="330" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="32">
         <v>323</v>
       </c>
     </row>
-    <row r="331" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="43">
         <v>324</v>
       </c>
     </row>
-    <row r="332" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="32">
         <v>325</v>
       </c>
     </row>
-    <row r="333" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>326</v>
       </c>
     </row>
-    <row r="334" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="32">
         <v>327</v>
       </c>
     </row>
-    <row r="335" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="43">
         <v>328</v>
       </c>
     </row>
-    <row r="336" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="32">
         <v>329</v>
       </c>
     </row>
-    <row r="337" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="43">
         <v>330</v>
       </c>
     </row>
-    <row r="338" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="32">
         <v>331</v>
       </c>
     </row>
-    <row r="339" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>332</v>
       </c>
     </row>
-    <row r="340" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="32">
         <v>333</v>
       </c>
     </row>
-    <row r="341" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="43">
         <v>334</v>
       </c>
     </row>
-    <row r="342" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="32">
         <v>335</v>
       </c>
     </row>
-    <row r="343" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="43">
         <v>336</v>
       </c>
     </row>
-    <row r="344" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="32">
         <v>337</v>
       </c>
     </row>
-    <row r="345" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>338</v>
       </c>
     </row>
-    <row r="346" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="32">
         <v>339</v>
       </c>
     </row>
-    <row r="347" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="43">
         <v>340</v>
       </c>
     </row>
-    <row r="348" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="32">
         <v>341</v>
       </c>
     </row>
-    <row r="349" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="43">
         <v>342</v>
       </c>
     </row>
-    <row r="350" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="32">
         <v>343</v>
       </c>
     </row>
-    <row r="351" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>344</v>
       </c>
     </row>
-    <row r="352" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="32">
         <v>345</v>
       </c>
     </row>
-    <row r="353" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="43">
         <v>346</v>
       </c>
     </row>
-    <row r="354" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="32">
         <v>347</v>
       </c>
     </row>
-    <row r="355" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="43">
         <v>348</v>
       </c>
     </row>
-    <row r="356" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="32">
         <v>349</v>
       </c>
     </row>
-    <row r="357" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>350</v>
       </c>
     </row>
-    <row r="358" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="32">
         <v>351</v>
       </c>
     </row>
-    <row r="359" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="43">
         <v>352</v>
       </c>
     </row>
-    <row r="360" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="32">
         <v>353</v>
       </c>
     </row>
-    <row r="361" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="43">
         <v>354</v>
       </c>
     </row>
-    <row r="362" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="32">
         <v>355</v>
       </c>
     </row>
-    <row r="363" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>356</v>
       </c>
     </row>
-    <row r="364" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="32">
         <v>357</v>
       </c>
     </row>
-    <row r="365" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="43">
         <v>358</v>
       </c>
     </row>
-    <row r="366" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="32">
         <v>359</v>
       </c>
     </row>
-    <row r="367" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="43">
         <v>360</v>
       </c>
     </row>
-    <row r="368" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="32">
         <v>361</v>
       </c>
     </row>
-    <row r="369" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>362</v>
       </c>
     </row>
-    <row r="370" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="32">
         <v>363</v>
       </c>
     </row>
-    <row r="371" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="43">
         <v>364</v>
       </c>
     </row>
-    <row r="372" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="32">
         <v>365</v>
       </c>
     </row>
-    <row r="373" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="43">
         <v>366</v>
       </c>
     </row>
-    <row r="374" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="45"/>
     </row>
-    <row r="376" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:1" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:1" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A7"/>
@@ -3083,16 +3083,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="8.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="974" width="9.6640625" style="1" customWidth="1"/>
-    <col min="975" max="975" width="9.6640625" customWidth="1"/>
+    <col min="1" max="12" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="974" width="9.7109375" style="1" customWidth="1"/>
+    <col min="975" max="975" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:974" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:974" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="AJZ1"/>
       <c r="AKA1"/>
@@ -3108,7 +3108,7 @@
       <c r="AKK1"/>
       <c r="AKL1"/>
     </row>
-    <row r="2" spans="1:974" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:974" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJZ2"/>
       <c r="AKA2"/>
       <c r="AKB2"/>
@@ -3123,7 +3123,7 @@
       <c r="AKK2"/>
       <c r="AKL2"/>
     </row>
-    <row r="3" spans="1:974" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:974" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
@@ -3139,7 +3139,7 @@
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
     </row>
-    <row r="4" spans="1:974" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:974" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -3155,7 +3155,7 @@
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
     </row>
-    <row r="5" spans="1:974" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:974" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:974" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:974" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:974" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:974" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:974" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:974" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3269,7 +3269,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -3285,7 +3285,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -3301,7 +3301,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="42"/>
     </row>
-    <row r="11" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -3317,7 +3317,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -3333,7 +3333,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="42"/>
     </row>
-    <row r="13" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -3349,7 +3349,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -3365,7 +3365,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -3381,7 +3381,7 @@
       <c r="M15" s="30"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -3397,7 +3397,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="42"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -3413,7 +3413,7 @@
       <c r="M17" s="30"/>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -3429,7 +3429,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="42"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -3445,7 +3445,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -3461,7 +3461,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="42"/>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -3477,7 +3477,7 @@
       <c r="M21" s="30"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -3493,7 +3493,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -3509,7 +3509,7 @@
       <c r="M23" s="30"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -3525,7 +3525,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -3541,7 +3541,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -3557,7 +3557,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -3573,7 +3573,7 @@
       <c r="M27" s="30"/>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -3589,7 +3589,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -3605,7 +3605,7 @@
       <c r="M29" s="30"/>
       <c r="N29" s="31"/>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -3621,7 +3621,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="42"/>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -3637,7 +3637,7 @@
       <c r="M31" s="30"/>
       <c r="N31" s="31"/>
     </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -3653,7 +3653,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="42"/>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -3669,7 +3669,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="31"/>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -3685,7 +3685,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="42"/>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -3701,7 +3701,7 @@
       <c r="M35" s="30"/>
       <c r="N35" s="31"/>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -3717,7 +3717,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="42"/>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3733,7 +3733,7 @@
       <c r="M37" s="30"/>
       <c r="N37" s="31"/>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -3749,7 +3749,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="42"/>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -3765,7 +3765,7 @@
       <c r="M39" s="30"/>
       <c r="N39" s="31"/>
     </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -3781,7 +3781,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="42"/>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -3797,7 +3797,7 @@
       <c r="M41" s="30"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -3813,7 +3813,7 @@
       <c r="M42" s="41"/>
       <c r="N42" s="42"/>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -3829,7 +3829,7 @@
       <c r="M43" s="30"/>
       <c r="N43" s="31"/>
     </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -3845,7 +3845,7 @@
       <c r="M44" s="41"/>
       <c r="N44" s="42"/>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -3861,7 +3861,7 @@
       <c r="M45" s="30"/>
       <c r="N45" s="31"/>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -3877,7 +3877,7 @@
       <c r="M46" s="41"/>
       <c r="N46" s="42"/>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -3893,7 +3893,7 @@
       <c r="M47" s="30"/>
       <c r="N47" s="31"/>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -3909,7 +3909,7 @@
       <c r="M48" s="41"/>
       <c r="N48" s="42"/>
     </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -3925,7 +3925,7 @@
       <c r="M49" s="30"/>
       <c r="N49" s="31"/>
     </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -3941,7 +3941,7 @@
       <c r="M50" s="41"/>
       <c r="N50" s="42"/>
     </row>
-    <row r="51" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -3957,7 +3957,7 @@
       <c r="M51" s="30"/>
       <c r="N51" s="31"/>
     </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -3973,7 +3973,7 @@
       <c r="M52" s="41"/>
       <c r="N52" s="42"/>
     </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -3989,7 +3989,7 @@
       <c r="M53" s="30"/>
       <c r="N53" s="31"/>
     </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -4005,7 +4005,7 @@
       <c r="M54" s="41"/>
       <c r="N54" s="42"/>
     </row>
-    <row r="55" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -4021,7 +4021,7 @@
       <c r="M55" s="30"/>
       <c r="N55" s="31"/>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -4037,7 +4037,7 @@
       <c r="M56" s="41"/>
       <c r="N56" s="42"/>
     </row>
-    <row r="57" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -4053,7 +4053,7 @@
       <c r="M57" s="30"/>
       <c r="N57" s="31"/>
     </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -4069,7 +4069,7 @@
       <c r="M58" s="41"/>
       <c r="N58" s="42"/>
     </row>
-    <row r="59" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -4085,7 +4085,7 @@
       <c r="M59" s="30"/>
       <c r="N59" s="31"/>
     </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -4101,7 +4101,7 @@
       <c r="M60" s="41"/>
       <c r="N60" s="42"/>
     </row>
-    <row r="61" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -4117,7 +4117,7 @@
       <c r="M61" s="30"/>
       <c r="N61" s="31"/>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -4133,7 +4133,7 @@
       <c r="M62" s="41"/>
       <c r="N62" s="42"/>
     </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -4149,7 +4149,7 @@
       <c r="M63" s="30"/>
       <c r="N63" s="31"/>
     </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -4165,7 +4165,7 @@
       <c r="M64" s="41"/>
       <c r="N64" s="42"/>
     </row>
-    <row r="65" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -4181,7 +4181,7 @@
       <c r="M65" s="30"/>
       <c r="N65" s="31"/>
     </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -4197,7 +4197,7 @@
       <c r="M66" s="41"/>
       <c r="N66" s="42"/>
     </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
@@ -4213,7 +4213,7 @@
       <c r="M67" s="30"/>
       <c r="N67" s="31"/>
     </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -4229,7 +4229,7 @@
       <c r="M68" s="41"/>
       <c r="N68" s="42"/>
     </row>
-    <row r="69" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -4245,7 +4245,7 @@
       <c r="M69" s="30"/>
       <c r="N69" s="31"/>
     </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -4261,7 +4261,7 @@
       <c r="M70" s="41"/>
       <c r="N70" s="42"/>
     </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -4277,7 +4277,7 @@
       <c r="M71" s="30"/>
       <c r="N71" s="31"/>
     </row>
-    <row r="72" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -4293,7 +4293,7 @@
       <c r="M72" s="41"/>
       <c r="N72" s="42"/>
     </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
@@ -4309,7 +4309,7 @@
       <c r="M73" s="30"/>
       <c r="N73" s="31"/>
     </row>
-    <row r="74" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -4325,7 +4325,7 @@
       <c r="M74" s="41"/>
       <c r="N74" s="42"/>
     </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -4341,7 +4341,7 @@
       <c r="M75" s="30"/>
       <c r="N75" s="31"/>
     </row>
-    <row r="76" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -4357,7 +4357,7 @@
       <c r="M76" s="41"/>
       <c r="N76" s="42"/>
     </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -4373,7 +4373,7 @@
       <c r="M77" s="30"/>
       <c r="N77" s="31"/>
     </row>
-    <row r="78" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -4389,7 +4389,7 @@
       <c r="M78" s="41"/>
       <c r="N78" s="42"/>
     </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -4405,7 +4405,7 @@
       <c r="M79" s="30"/>
       <c r="N79" s="31"/>
     </row>
-    <row r="80" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -4421,7 +4421,7 @@
       <c r="M80" s="41"/>
       <c r="N80" s="42"/>
     </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -4437,7 +4437,7 @@
       <c r="M81" s="30"/>
       <c r="N81" s="31"/>
     </row>
-    <row r="82" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -4453,7 +4453,7 @@
       <c r="M82" s="41"/>
       <c r="N82" s="42"/>
     </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
@@ -4469,7 +4469,7 @@
       <c r="M83" s="30"/>
       <c r="N83" s="31"/>
     </row>
-    <row r="84" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -4485,7 +4485,7 @@
       <c r="M84" s="41"/>
       <c r="N84" s="42"/>
     </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -4501,7 +4501,7 @@
       <c r="M85" s="30"/>
       <c r="N85" s="31"/>
     </row>
-    <row r="86" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -4517,7 +4517,7 @@
       <c r="M86" s="41"/>
       <c r="N86" s="42"/>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -4533,7 +4533,7 @@
       <c r="M87" s="30"/>
       <c r="N87" s="31"/>
     </row>
-    <row r="88" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -4549,7 +4549,7 @@
       <c r="M88" s="41"/>
       <c r="N88" s="42"/>
     </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -4565,7 +4565,7 @@
       <c r="M89" s="30"/>
       <c r="N89" s="31"/>
     </row>
-    <row r="90" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -4581,7 +4581,7 @@
       <c r="M90" s="41"/>
       <c r="N90" s="42"/>
     </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -4597,7 +4597,7 @@
       <c r="M91" s="30"/>
       <c r="N91" s="31"/>
     </row>
-    <row r="92" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -4613,7 +4613,7 @@
       <c r="M92" s="41"/>
       <c r="N92" s="42"/>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -4629,7 +4629,7 @@
       <c r="M93" s="30"/>
       <c r="N93" s="31"/>
     </row>
-    <row r="94" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -4645,7 +4645,7 @@
       <c r="M94" s="41"/>
       <c r="N94" s="42"/>
     </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -4661,7 +4661,7 @@
       <c r="M95" s="30"/>
       <c r="N95" s="31"/>
     </row>
-    <row r="96" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -4677,7 +4677,7 @@
       <c r="M96" s="41"/>
       <c r="N96" s="42"/>
     </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -4693,7 +4693,7 @@
       <c r="M97" s="30"/>
       <c r="N97" s="31"/>
     </row>
-    <row r="98" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -4709,7 +4709,7 @@
       <c r="M98" s="41"/>
       <c r="N98" s="42"/>
     </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -4725,7 +4725,7 @@
       <c r="M99" s="30"/>
       <c r="N99" s="31"/>
     </row>
-    <row r="100" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -4741,7 +4741,7 @@
       <c r="M100" s="41"/>
       <c r="N100" s="42"/>
     </row>
-    <row r="101" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
@@ -4757,7 +4757,7 @@
       <c r="M101" s="30"/>
       <c r="N101" s="31"/>
     </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
@@ -4773,7 +4773,7 @@
       <c r="M102" s="41"/>
       <c r="N102" s="42"/>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
@@ -4789,7 +4789,7 @@
       <c r="M103" s="30"/>
       <c r="N103" s="31"/>
     </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="33"/>
       <c r="C104" s="33"/>
@@ -4805,7 +4805,7 @@
       <c r="M104" s="41"/>
       <c r="N104" s="42"/>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
@@ -4821,7 +4821,7 @@
       <c r="M105" s="30"/>
       <c r="N105" s="31"/>
     </row>
-    <row r="106" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
@@ -4837,7 +4837,7 @@
       <c r="M106" s="41"/>
       <c r="N106" s="42"/>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -4853,7 +4853,7 @@
       <c r="M107" s="30"/>
       <c r="N107" s="31"/>
     </row>
-    <row r="108" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
@@ -4869,7 +4869,7 @@
       <c r="M108" s="41"/>
       <c r="N108" s="42"/>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
@@ -4885,7 +4885,7 @@
       <c r="M109" s="30"/>
       <c r="N109" s="31"/>
     </row>
-    <row r="110" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
@@ -4901,7 +4901,7 @@
       <c r="M110" s="41"/>
       <c r="N110" s="42"/>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
@@ -4917,7 +4917,7 @@
       <c r="M111" s="30"/>
       <c r="N111" s="31"/>
     </row>
-    <row r="112" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
@@ -4933,7 +4933,7 @@
       <c r="M112" s="41"/>
       <c r="N112" s="42"/>
     </row>
-    <row r="113" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
@@ -4949,7 +4949,7 @@
       <c r="M113" s="30"/>
       <c r="N113" s="31"/>
     </row>
-    <row r="114" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="33"/>
       <c r="B114" s="33"/>
       <c r="C114" s="33"/>
@@ -4965,7 +4965,7 @@
       <c r="M114" s="41"/>
       <c r="N114" s="42"/>
     </row>
-    <row r="115" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
@@ -4981,7 +4981,7 @@
       <c r="M115" s="30"/>
       <c r="N115" s="31"/>
     </row>
-    <row r="116" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="33"/>
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
@@ -4997,7 +4997,7 @@
       <c r="M116" s="41"/>
       <c r="N116" s="42"/>
     </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
@@ -5013,7 +5013,7 @@
       <c r="M117" s="30"/>
       <c r="N117" s="31"/>
     </row>
-    <row r="118" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
@@ -5029,7 +5029,7 @@
       <c r="M118" s="41"/>
       <c r="N118" s="42"/>
     </row>
-    <row r="119" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
@@ -5045,7 +5045,7 @@
       <c r="M119" s="30"/>
       <c r="N119" s="31"/>
     </row>
-    <row r="120" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="33"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
@@ -5061,7 +5061,7 @@
       <c r="M120" s="41"/>
       <c r="N120" s="42"/>
     </row>
-    <row r="121" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -5077,7 +5077,7 @@
       <c r="M121" s="30"/>
       <c r="N121" s="31"/>
     </row>
-    <row r="122" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="33"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -5093,7 +5093,7 @@
       <c r="M122" s="41"/>
       <c r="N122" s="42"/>
     </row>
-    <row r="123" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -5109,7 +5109,7 @@
       <c r="M123" s="30"/>
       <c r="N123" s="31"/>
     </row>
-    <row r="124" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="33"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -5125,7 +5125,7 @@
       <c r="M124" s="41"/>
       <c r="N124" s="42"/>
     </row>
-    <row r="125" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -5141,7 +5141,7 @@
       <c r="M125" s="30"/>
       <c r="N125" s="31"/>
     </row>
-    <row r="126" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -5157,7 +5157,7 @@
       <c r="M126" s="41"/>
       <c r="N126" s="42"/>
     </row>
-    <row r="127" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
@@ -5173,7 +5173,7 @@
       <c r="M127" s="30"/>
       <c r="N127" s="31"/>
     </row>
-    <row r="128" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
@@ -5189,7 +5189,7 @@
       <c r="M128" s="41"/>
       <c r="N128" s="42"/>
     </row>
-    <row r="129" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
@@ -5205,7 +5205,7 @@
       <c r="M129" s="30"/>
       <c r="N129" s="31"/>
     </row>
-    <row r="130" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
@@ -5221,7 +5221,7 @@
       <c r="M130" s="41"/>
       <c r="N130" s="42"/>
     </row>
-    <row r="131" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
@@ -5237,7 +5237,7 @@
       <c r="M131" s="30"/>
       <c r="N131" s="31"/>
     </row>
-    <row r="132" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
@@ -5253,7 +5253,7 @@
       <c r="M132" s="41"/>
       <c r="N132" s="42"/>
     </row>
-    <row r="133" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
@@ -5269,7 +5269,7 @@
       <c r="M133" s="30"/>
       <c r="N133" s="31"/>
     </row>
-    <row r="134" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -5285,7 +5285,7 @@
       <c r="M134" s="41"/>
       <c r="N134" s="42"/>
     </row>
-    <row r="135" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
@@ -5301,7 +5301,7 @@
       <c r="M135" s="30"/>
       <c r="N135" s="31"/>
     </row>
-    <row r="136" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
@@ -5317,7 +5317,7 @@
       <c r="M136" s="41"/>
       <c r="N136" s="42"/>
     </row>
-    <row r="137" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -5333,7 +5333,7 @@
       <c r="M137" s="30"/>
       <c r="N137" s="31"/>
     </row>
-    <row r="138" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
@@ -5349,7 +5349,7 @@
       <c r="M138" s="41"/>
       <c r="N138" s="42"/>
     </row>
-    <row r="139" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
@@ -5365,7 +5365,7 @@
       <c r="M139" s="30"/>
       <c r="N139" s="31"/>
     </row>
-    <row r="140" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="33"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
@@ -5381,7 +5381,7 @@
       <c r="M140" s="41"/>
       <c r="N140" s="42"/>
     </row>
-    <row r="141" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
@@ -5397,7 +5397,7 @@
       <c r="M141" s="30"/>
       <c r="N141" s="31"/>
     </row>
-    <row r="142" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="33"/>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
@@ -5413,7 +5413,7 @@
       <c r="M142" s="41"/>
       <c r="N142" s="42"/>
     </row>
-    <row r="143" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
@@ -5429,7 +5429,7 @@
       <c r="M143" s="30"/>
       <c r="N143" s="31"/>
     </row>
-    <row r="144" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="33"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
@@ -5445,7 +5445,7 @@
       <c r="M144" s="41"/>
       <c r="N144" s="42"/>
     </row>
-    <row r="145" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
@@ -5461,7 +5461,7 @@
       <c r="M145" s="30"/>
       <c r="N145" s="31"/>
     </row>
-    <row r="146" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="33"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
@@ -5477,7 +5477,7 @@
       <c r="M146" s="41"/>
       <c r="N146" s="42"/>
     </row>
-    <row r="147" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
@@ -5493,7 +5493,7 @@
       <c r="M147" s="30"/>
       <c r="N147" s="31"/>
     </row>
-    <row r="148" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="33"/>
       <c r="B148" s="33"/>
       <c r="C148" s="33"/>
@@ -5509,7 +5509,7 @@
       <c r="M148" s="41"/>
       <c r="N148" s="42"/>
     </row>
-    <row r="149" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
@@ -5525,7 +5525,7 @@
       <c r="M149" s="30"/>
       <c r="N149" s="31"/>
     </row>
-    <row r="150" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="33"/>
       <c r="B150" s="33"/>
       <c r="C150" s="33"/>
@@ -5541,7 +5541,7 @@
       <c r="M150" s="41"/>
       <c r="N150" s="42"/>
     </row>
-    <row r="151" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
@@ -5557,7 +5557,7 @@
       <c r="M151" s="30"/>
       <c r="N151" s="31"/>
     </row>
-    <row r="152" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="33"/>
       <c r="B152" s="33"/>
       <c r="C152" s="33"/>
@@ -5573,7 +5573,7 @@
       <c r="M152" s="41"/>
       <c r="N152" s="42"/>
     </row>
-    <row r="153" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="24"/>
@@ -5589,7 +5589,7 @@
       <c r="M153" s="30"/>
       <c r="N153" s="31"/>
     </row>
-    <row r="154" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="33"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
@@ -5605,7 +5605,7 @@
       <c r="M154" s="41"/>
       <c r="N154" s="42"/>
     </row>
-    <row r="155" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
@@ -5621,7 +5621,7 @@
       <c r="M155" s="30"/>
       <c r="N155" s="31"/>
     </row>
-    <row r="156" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
@@ -5637,7 +5637,7 @@
       <c r="M156" s="41"/>
       <c r="N156" s="42"/>
     </row>
-    <row r="157" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="24"/>
       <c r="B157" s="24"/>
       <c r="C157" s="24"/>
@@ -5653,7 +5653,7 @@
       <c r="M157" s="30"/>
       <c r="N157" s="31"/>
     </row>
-    <row r="158" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
@@ -5669,7 +5669,7 @@
       <c r="M158" s="41"/>
       <c r="N158" s="42"/>
     </row>
-    <row r="159" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
       <c r="B159" s="24"/>
       <c r="C159" s="24"/>
@@ -5685,7 +5685,7 @@
       <c r="M159" s="30"/>
       <c r="N159" s="31"/>
     </row>
-    <row r="160" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="33"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
@@ -5701,7 +5701,7 @@
       <c r="M160" s="41"/>
       <c r="N160" s="42"/>
     </row>
-    <row r="161" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="24"/>
       <c r="B161" s="24"/>
       <c r="C161" s="24"/>
@@ -5717,7 +5717,7 @@
       <c r="M161" s="30"/>
       <c r="N161" s="31"/>
     </row>
-    <row r="162" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="33"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
@@ -5733,7 +5733,7 @@
       <c r="M162" s="41"/>
       <c r="N162" s="42"/>
     </row>
-    <row r="163" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="24"/>
       <c r="B163" s="24"/>
       <c r="C163" s="24"/>
@@ -5749,7 +5749,7 @@
       <c r="M163" s="30"/>
       <c r="N163" s="31"/>
     </row>
-    <row r="164" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="33"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
@@ -5765,7 +5765,7 @@
       <c r="M164" s="41"/>
       <c r="N164" s="42"/>
     </row>
-    <row r="165" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24"/>
       <c r="B165" s="24"/>
       <c r="C165" s="24"/>
@@ -5781,7 +5781,7 @@
       <c r="M165" s="30"/>
       <c r="N165" s="31"/>
     </row>
-    <row r="166" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
@@ -5797,7 +5797,7 @@
       <c r="M166" s="41"/>
       <c r="N166" s="42"/>
     </row>
-    <row r="167" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="24"/>
       <c r="B167" s="24"/>
       <c r="C167" s="24"/>
@@ -5813,7 +5813,7 @@
       <c r="M167" s="30"/>
       <c r="N167" s="31"/>
     </row>
-    <row r="168" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -5829,7 +5829,7 @@
       <c r="M168" s="41"/>
       <c r="N168" s="42"/>
     </row>
-    <row r="169" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="24"/>
       <c r="B169" s="24"/>
       <c r="C169" s="24"/>
@@ -5845,7 +5845,7 @@
       <c r="M169" s="30"/>
       <c r="N169" s="31"/>
     </row>
-    <row r="170" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="33"/>
       <c r="B170" s="33"/>
       <c r="C170" s="33"/>
@@ -5861,7 +5861,7 @@
       <c r="M170" s="41"/>
       <c r="N170" s="42"/>
     </row>
-    <row r="171" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="24"/>
       <c r="B171" s="24"/>
       <c r="C171" s="24"/>
@@ -5877,7 +5877,7 @@
       <c r="M171" s="30"/>
       <c r="N171" s="31"/>
     </row>
-    <row r="172" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
@@ -5893,7 +5893,7 @@
       <c r="M172" s="41"/>
       <c r="N172" s="42"/>
     </row>
-    <row r="173" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="24"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
@@ -5909,7 +5909,7 @@
       <c r="M173" s="30"/>
       <c r="N173" s="31"/>
     </row>
-    <row r="174" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="33"/>
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
@@ -5925,7 +5925,7 @@
       <c r="M174" s="41"/>
       <c r="N174" s="42"/>
     </row>
-    <row r="175" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="24"/>
       <c r="B175" s="24"/>
       <c r="C175" s="24"/>
@@ -5941,7 +5941,7 @@
       <c r="M175" s="30"/>
       <c r="N175" s="31"/>
     </row>
-    <row r="176" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="33"/>
       <c r="B176" s="33"/>
       <c r="C176" s="33"/>
@@ -5957,7 +5957,7 @@
       <c r="M176" s="41"/>
       <c r="N176" s="42"/>
     </row>
-    <row r="177" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="24"/>
       <c r="B177" s="24"/>
       <c r="C177" s="24"/>
@@ -5973,7 +5973,7 @@
       <c r="M177" s="30"/>
       <c r="N177" s="31"/>
     </row>
-    <row r="178" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="33"/>
       <c r="B178" s="33"/>
       <c r="C178" s="33"/>
@@ -5989,7 +5989,7 @@
       <c r="M178" s="41"/>
       <c r="N178" s="42"/>
     </row>
-    <row r="179" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="24"/>
       <c r="B179" s="24"/>
       <c r="C179" s="24"/>
@@ -6005,7 +6005,7 @@
       <c r="M179" s="30"/>
       <c r="N179" s="31"/>
     </row>
-    <row r="180" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="33"/>
       <c r="B180" s="33"/>
       <c r="C180" s="33"/>
@@ -6021,7 +6021,7 @@
       <c r="M180" s="41"/>
       <c r="N180" s="42"/>
     </row>
-    <row r="181" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="24"/>
       <c r="B181" s="24"/>
       <c r="C181" s="24"/>
@@ -6037,7 +6037,7 @@
       <c r="M181" s="30"/>
       <c r="N181" s="31"/>
     </row>
-    <row r="182" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="33"/>
       <c r="B182" s="33"/>
       <c r="C182" s="33"/>
@@ -6053,7 +6053,7 @@
       <c r="M182" s="41"/>
       <c r="N182" s="42"/>
     </row>
-    <row r="183" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="24"/>
       <c r="B183" s="24"/>
       <c r="C183" s="24"/>
@@ -6069,7 +6069,7 @@
       <c r="M183" s="30"/>
       <c r="N183" s="31"/>
     </row>
-    <row r="184" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="33"/>
       <c r="B184" s="33"/>
       <c r="C184" s="33"/>
@@ -6085,7 +6085,7 @@
       <c r="M184" s="41"/>
       <c r="N184" s="42"/>
     </row>
-    <row r="185" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="24"/>
       <c r="B185" s="24"/>
       <c r="C185" s="24"/>
@@ -6101,7 +6101,7 @@
       <c r="M185" s="30"/>
       <c r="N185" s="31"/>
     </row>
-    <row r="186" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="33"/>
       <c r="B186" s="33"/>
       <c r="C186" s="33"/>
@@ -6117,7 +6117,7 @@
       <c r="M186" s="41"/>
       <c r="N186" s="42"/>
     </row>
-    <row r="187" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="24"/>
       <c r="B187" s="24"/>
       <c r="C187" s="24"/>
@@ -6133,7 +6133,7 @@
       <c r="M187" s="30"/>
       <c r="N187" s="31"/>
     </row>
-    <row r="188" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="33"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -6149,7 +6149,7 @@
       <c r="M188" s="41"/>
       <c r="N188" s="42"/>
     </row>
-    <row r="189" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="24"/>
       <c r="B189" s="24"/>
       <c r="C189" s="24"/>
@@ -6165,7 +6165,7 @@
       <c r="M189" s="30"/>
       <c r="N189" s="31"/>
     </row>
-    <row r="190" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="33"/>
       <c r="B190" s="33"/>
       <c r="C190" s="33"/>
@@ -6181,7 +6181,7 @@
       <c r="M190" s="41"/>
       <c r="N190" s="42"/>
     </row>
-    <row r="191" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="24"/>
       <c r="B191" s="24"/>
       <c r="C191" s="24"/>
@@ -6197,7 +6197,7 @@
       <c r="M191" s="30"/>
       <c r="N191" s="31"/>
     </row>
-    <row r="192" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="33"/>
       <c r="B192" s="33"/>
       <c r="C192" s="33"/>
@@ -6213,7 +6213,7 @@
       <c r="M192" s="41"/>
       <c r="N192" s="42"/>
     </row>
-    <row r="193" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="24"/>
       <c r="B193" s="24"/>
       <c r="C193" s="24"/>
@@ -6229,7 +6229,7 @@
       <c r="M193" s="30"/>
       <c r="N193" s="31"/>
     </row>
-    <row r="194" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="33"/>
       <c r="B194" s="33"/>
       <c r="C194" s="33"/>
@@ -6245,7 +6245,7 @@
       <c r="M194" s="41"/>
       <c r="N194" s="42"/>
     </row>
-    <row r="195" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="24"/>
       <c r="B195" s="24"/>
       <c r="C195" s="24"/>
@@ -6261,7 +6261,7 @@
       <c r="M195" s="30"/>
       <c r="N195" s="31"/>
     </row>
-    <row r="196" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="33"/>
       <c r="B196" s="33"/>
       <c r="C196" s="33"/>
@@ -6277,7 +6277,7 @@
       <c r="M196" s="41"/>
       <c r="N196" s="42"/>
     </row>
-    <row r="197" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="24"/>
       <c r="B197" s="24"/>
       <c r="C197" s="24"/>
@@ -6293,7 +6293,7 @@
       <c r="M197" s="30"/>
       <c r="N197" s="31"/>
     </row>
-    <row r="198" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="33"/>
       <c r="B198" s="33"/>
       <c r="C198" s="33"/>
@@ -6309,7 +6309,7 @@
       <c r="M198" s="41"/>
       <c r="N198" s="42"/>
     </row>
-    <row r="199" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="24"/>
       <c r="B199" s="24"/>
       <c r="C199" s="24"/>
@@ -6325,7 +6325,7 @@
       <c r="M199" s="30"/>
       <c r="N199" s="31"/>
     </row>
-    <row r="200" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="33"/>
       <c r="B200" s="33"/>
       <c r="C200" s="33"/>
@@ -6341,7 +6341,7 @@
       <c r="M200" s="41"/>
       <c r="N200" s="42"/>
     </row>
-    <row r="201" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="24"/>
       <c r="B201" s="24"/>
       <c r="C201" s="24"/>
@@ -6357,7 +6357,7 @@
       <c r="M201" s="30"/>
       <c r="N201" s="31"/>
     </row>
-    <row r="202" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="33"/>
       <c r="B202" s="33"/>
       <c r="C202" s="33"/>
@@ -6373,7 +6373,7 @@
       <c r="M202" s="41"/>
       <c r="N202" s="42"/>
     </row>
-    <row r="203" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="24"/>
       <c r="B203" s="24"/>
       <c r="C203" s="24"/>
@@ -6389,7 +6389,7 @@
       <c r="M203" s="30"/>
       <c r="N203" s="31"/>
     </row>
-    <row r="204" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="33"/>
       <c r="B204" s="33"/>
       <c r="C204" s="33"/>
@@ -6405,7 +6405,7 @@
       <c r="M204" s="41"/>
       <c r="N204" s="42"/>
     </row>
-    <row r="205" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="24"/>
       <c r="B205" s="24"/>
       <c r="C205" s="24"/>
@@ -6421,7 +6421,7 @@
       <c r="M205" s="30"/>
       <c r="N205" s="31"/>
     </row>
-    <row r="206" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="33"/>
       <c r="B206" s="33"/>
       <c r="C206" s="33"/>
@@ -6437,7 +6437,7 @@
       <c r="M206" s="41"/>
       <c r="N206" s="42"/>
     </row>
-    <row r="207" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="24"/>
       <c r="B207" s="24"/>
       <c r="C207" s="24"/>
@@ -6453,7 +6453,7 @@
       <c r="M207" s="30"/>
       <c r="N207" s="31"/>
     </row>
-    <row r="208" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="33"/>
       <c r="B208" s="33"/>
       <c r="C208" s="33"/>
@@ -6469,7 +6469,7 @@
       <c r="M208" s="41"/>
       <c r="N208" s="42"/>
     </row>
-    <row r="209" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="24"/>
       <c r="B209" s="24"/>
       <c r="C209" s="24"/>
@@ -6485,7 +6485,7 @@
       <c r="M209" s="30"/>
       <c r="N209" s="31"/>
     </row>
-    <row r="210" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="33"/>
       <c r="B210" s="33"/>
       <c r="C210" s="33"/>
@@ -6501,7 +6501,7 @@
       <c r="M210" s="41"/>
       <c r="N210" s="42"/>
     </row>
-    <row r="211" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="24"/>
       <c r="B211" s="24"/>
       <c r="C211" s="24"/>
@@ -6517,7 +6517,7 @@
       <c r="M211" s="30"/>
       <c r="N211" s="31"/>
     </row>
-    <row r="212" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="33"/>
       <c r="B212" s="33"/>
       <c r="C212" s="33"/>
@@ -6533,7 +6533,7 @@
       <c r="M212" s="41"/>
       <c r="N212" s="42"/>
     </row>
-    <row r="213" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="24"/>
       <c r="B213" s="24"/>
       <c r="C213" s="24"/>
@@ -6549,7 +6549,7 @@
       <c r="M213" s="30"/>
       <c r="N213" s="31"/>
     </row>
-    <row r="214" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="33"/>
       <c r="B214" s="33"/>
       <c r="C214" s="33"/>
@@ -6565,7 +6565,7 @@
       <c r="M214" s="41"/>
       <c r="N214" s="42"/>
     </row>
-    <row r="215" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="24"/>
       <c r="B215" s="24"/>
       <c r="C215" s="24"/>
@@ -6581,7 +6581,7 @@
       <c r="M215" s="30"/>
       <c r="N215" s="31"/>
     </row>
-    <row r="216" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="33"/>
       <c r="B216" s="33"/>
       <c r="C216" s="33"/>
@@ -6597,7 +6597,7 @@
       <c r="M216" s="41"/>
       <c r="N216" s="42"/>
     </row>
-    <row r="217" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="24"/>
       <c r="B217" s="24"/>
       <c r="C217" s="24"/>
@@ -6613,7 +6613,7 @@
       <c r="M217" s="30"/>
       <c r="N217" s="31"/>
     </row>
-    <row r="218" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="33"/>
       <c r="B218" s="33"/>
       <c r="C218" s="33"/>
@@ -6629,7 +6629,7 @@
       <c r="M218" s="41"/>
       <c r="N218" s="42"/>
     </row>
-    <row r="219" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="24"/>
       <c r="B219" s="24"/>
       <c r="C219" s="24"/>
@@ -6645,7 +6645,7 @@
       <c r="M219" s="30"/>
       <c r="N219" s="31"/>
     </row>
-    <row r="220" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="33"/>
       <c r="B220" s="33"/>
       <c r="C220" s="33"/>
@@ -6661,7 +6661,7 @@
       <c r="M220" s="41"/>
       <c r="N220" s="42"/>
     </row>
-    <row r="221" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="24"/>
       <c r="B221" s="24"/>
       <c r="C221" s="24"/>
@@ -6677,7 +6677,7 @@
       <c r="M221" s="30"/>
       <c r="N221" s="31"/>
     </row>
-    <row r="222" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="33"/>
       <c r="B222" s="33"/>
       <c r="C222" s="33"/>
@@ -6693,7 +6693,7 @@
       <c r="M222" s="41"/>
       <c r="N222" s="42"/>
     </row>
-    <row r="223" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="24"/>
       <c r="B223" s="24"/>
       <c r="C223" s="24"/>
@@ -6709,7 +6709,7 @@
       <c r="M223" s="30"/>
       <c r="N223" s="31"/>
     </row>
-    <row r="224" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="33"/>
       <c r="B224" s="33"/>
       <c r="C224" s="33"/>
@@ -6725,7 +6725,7 @@
       <c r="M224" s="41"/>
       <c r="N224" s="42"/>
     </row>
-    <row r="225" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -6741,7 +6741,7 @@
       <c r="M225" s="30"/>
       <c r="N225" s="31"/>
     </row>
-    <row r="226" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="33"/>
       <c r="B226" s="33"/>
       <c r="C226" s="33"/>
@@ -6757,7 +6757,7 @@
       <c r="M226" s="41"/>
       <c r="N226" s="42"/>
     </row>
-    <row r="227" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
@@ -6773,7 +6773,7 @@
       <c r="M227" s="30"/>
       <c r="N227" s="31"/>
     </row>
-    <row r="228" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="33"/>
       <c r="B228" s="33"/>
       <c r="C228" s="33"/>
@@ -6789,7 +6789,7 @@
       <c r="M228" s="41"/>
       <c r="N228" s="42"/>
     </row>
-    <row r="229" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -6805,7 +6805,7 @@
       <c r="M229" s="30"/>
       <c r="N229" s="31"/>
     </row>
-    <row r="230" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33"/>
       <c r="B230" s="33"/>
       <c r="C230" s="33"/>
@@ -6821,7 +6821,7 @@
       <c r="M230" s="41"/>
       <c r="N230" s="42"/>
     </row>
-    <row r="231" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
@@ -6837,7 +6837,7 @@
       <c r="M231" s="30"/>
       <c r="N231" s="31"/>
     </row>
-    <row r="232" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="33"/>
       <c r="B232" s="33"/>
       <c r="C232" s="33"/>
@@ -6853,7 +6853,7 @@
       <c r="M232" s="41"/>
       <c r="N232" s="42"/>
     </row>
-    <row r="233" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
@@ -6869,7 +6869,7 @@
       <c r="M233" s="30"/>
       <c r="N233" s="31"/>
     </row>
-    <row r="234" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="33"/>
       <c r="B234" s="33"/>
       <c r="C234" s="33"/>
@@ -6885,7 +6885,7 @@
       <c r="M234" s="41"/>
       <c r="N234" s="42"/>
     </row>
-    <row r="235" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
       <c r="C235" s="24"/>
@@ -6901,7 +6901,7 @@
       <c r="M235" s="30"/>
       <c r="N235" s="31"/>
     </row>
-    <row r="236" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="33"/>
       <c r="B236" s="33"/>
       <c r="C236" s="33"/>
@@ -6917,7 +6917,7 @@
       <c r="M236" s="41"/>
       <c r="N236" s="42"/>
     </row>
-    <row r="237" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="24"/>
       <c r="B237" s="24"/>
       <c r="C237" s="24"/>
@@ -6933,7 +6933,7 @@
       <c r="M237" s="30"/>
       <c r="N237" s="31"/>
     </row>
-    <row r="238" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="33"/>
       <c r="B238" s="33"/>
       <c r="C238" s="33"/>
@@ -6949,7 +6949,7 @@
       <c r="M238" s="41"/>
       <c r="N238" s="42"/>
     </row>
-    <row r="239" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="24"/>
       <c r="B239" s="24"/>
       <c r="C239" s="24"/>
@@ -6965,7 +6965,7 @@
       <c r="M239" s="30"/>
       <c r="N239" s="31"/>
     </row>
-    <row r="240" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="33"/>
       <c r="B240" s="33"/>
       <c r="C240" s="33"/>
@@ -6981,7 +6981,7 @@
       <c r="M240" s="41"/>
       <c r="N240" s="42"/>
     </row>
-    <row r="241" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="24"/>
       <c r="B241" s="24"/>
       <c r="C241" s="24"/>
@@ -6997,7 +6997,7 @@
       <c r="M241" s="30"/>
       <c r="N241" s="31"/>
     </row>
-    <row r="242" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="33"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -7013,7 +7013,7 @@
       <c r="M242" s="41"/>
       <c r="N242" s="42"/>
     </row>
-    <row r="243" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="24"/>
       <c r="B243" s="24"/>
       <c r="C243" s="24"/>
@@ -7029,7 +7029,7 @@
       <c r="M243" s="30"/>
       <c r="N243" s="31"/>
     </row>
-    <row r="244" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="33"/>
       <c r="B244" s="33"/>
       <c r="C244" s="33"/>
@@ -7045,7 +7045,7 @@
       <c r="M244" s="41"/>
       <c r="N244" s="42"/>
     </row>
-    <row r="245" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="24"/>
       <c r="B245" s="24"/>
       <c r="C245" s="24"/>
@@ -7061,7 +7061,7 @@
       <c r="M245" s="30"/>
       <c r="N245" s="31"/>
     </row>
-    <row r="246" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="33"/>
       <c r="B246" s="33"/>
       <c r="C246" s="33"/>
@@ -7077,7 +7077,7 @@
       <c r="M246" s="41"/>
       <c r="N246" s="42"/>
     </row>
-    <row r="247" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="24"/>
       <c r="B247" s="24"/>
       <c r="C247" s="24"/>
@@ -7093,7 +7093,7 @@
       <c r="M247" s="30"/>
       <c r="N247" s="31"/>
     </row>
-    <row r="248" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="33"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
@@ -7109,7 +7109,7 @@
       <c r="M248" s="41"/>
       <c r="N248" s="42"/>
     </row>
-    <row r="249" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="24"/>
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
@@ -7125,7 +7125,7 @@
       <c r="M249" s="30"/>
       <c r="N249" s="31"/>
     </row>
-    <row r="250" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="33"/>
       <c r="B250" s="33"/>
       <c r="C250" s="33"/>
@@ -7141,7 +7141,7 @@
       <c r="M250" s="41"/>
       <c r="N250" s="42"/>
     </row>
-    <row r="251" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="24"/>
       <c r="B251" s="24"/>
       <c r="C251" s="24"/>
@@ -7157,7 +7157,7 @@
       <c r="M251" s="30"/>
       <c r="N251" s="31"/>
     </row>
-    <row r="252" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="33"/>
       <c r="B252" s="33"/>
       <c r="C252" s="33"/>
@@ -7173,7 +7173,7 @@
       <c r="M252" s="41"/>
       <c r="N252" s="42"/>
     </row>
-    <row r="253" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="24"/>
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
@@ -7189,7 +7189,7 @@
       <c r="M253" s="30"/>
       <c r="N253" s="31"/>
     </row>
-    <row r="254" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="33"/>
       <c r="B254" s="33"/>
       <c r="C254" s="33"/>
@@ -7205,7 +7205,7 @@
       <c r="M254" s="41"/>
       <c r="N254" s="42"/>
     </row>
-    <row r="255" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="24"/>
       <c r="B255" s="24"/>
       <c r="C255" s="24"/>
@@ -7221,7 +7221,7 @@
       <c r="M255" s="30"/>
       <c r="N255" s="31"/>
     </row>
-    <row r="256" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="33"/>
       <c r="B256" s="33"/>
       <c r="C256" s="33"/>
@@ -7237,7 +7237,7 @@
       <c r="M256" s="41"/>
       <c r="N256" s="42"/>
     </row>
-    <row r="257" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="24"/>
       <c r="B257" s="24"/>
       <c r="C257" s="24"/>
@@ -7253,7 +7253,7 @@
       <c r="M257" s="30"/>
       <c r="N257" s="31"/>
     </row>
-    <row r="258" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="33"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
@@ -7269,7 +7269,7 @@
       <c r="M258" s="41"/>
       <c r="N258" s="42"/>
     </row>
-    <row r="259" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="24"/>
       <c r="B259" s="24"/>
       <c r="C259" s="24"/>
@@ -7285,7 +7285,7 @@
       <c r="M259" s="30"/>
       <c r="N259" s="31"/>
     </row>
-    <row r="260" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="33"/>
       <c r="B260" s="33"/>
       <c r="C260" s="33"/>
@@ -7301,7 +7301,7 @@
       <c r="M260" s="41"/>
       <c r="N260" s="42"/>
     </row>
-    <row r="261" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="24"/>
       <c r="B261" s="24"/>
       <c r="C261" s="24"/>
@@ -7317,7 +7317,7 @@
       <c r="M261" s="30"/>
       <c r="N261" s="31"/>
     </row>
-    <row r="262" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="33"/>
       <c r="B262" s="33"/>
       <c r="C262" s="33"/>
@@ -7333,7 +7333,7 @@
       <c r="M262" s="41"/>
       <c r="N262" s="42"/>
     </row>
-    <row r="263" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="24"/>
       <c r="B263" s="24"/>
       <c r="C263" s="24"/>
@@ -7349,7 +7349,7 @@
       <c r="M263" s="30"/>
       <c r="N263" s="31"/>
     </row>
-    <row r="264" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="33"/>
       <c r="B264" s="33"/>
       <c r="C264" s="33"/>
@@ -7365,7 +7365,7 @@
       <c r="M264" s="41"/>
       <c r="N264" s="42"/>
     </row>
-    <row r="265" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="24"/>
       <c r="B265" s="24"/>
       <c r="C265" s="24"/>
@@ -7381,7 +7381,7 @@
       <c r="M265" s="30"/>
       <c r="N265" s="31"/>
     </row>
-    <row r="266" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="33"/>
       <c r="B266" s="33"/>
       <c r="C266" s="33"/>
@@ -7397,7 +7397,7 @@
       <c r="M266" s="41"/>
       <c r="N266" s="42"/>
     </row>
-    <row r="267" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="24"/>
       <c r="B267" s="24"/>
       <c r="C267" s="24"/>
@@ -7413,7 +7413,7 @@
       <c r="M267" s="30"/>
       <c r="N267" s="31"/>
     </row>
-    <row r="268" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="33"/>
       <c r="B268" s="33"/>
       <c r="C268" s="33"/>
@@ -7429,7 +7429,7 @@
       <c r="M268" s="41"/>
       <c r="N268" s="42"/>
     </row>
-    <row r="269" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="24"/>
       <c r="B269" s="24"/>
       <c r="C269" s="24"/>
@@ -7445,7 +7445,7 @@
       <c r="M269" s="30"/>
       <c r="N269" s="31"/>
     </row>
-    <row r="270" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="33"/>
       <c r="B270" s="33"/>
       <c r="C270" s="33"/>
@@ -7461,7 +7461,7 @@
       <c r="M270" s="41"/>
       <c r="N270" s="42"/>
     </row>
-    <row r="271" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="24"/>
       <c r="B271" s="24"/>
       <c r="C271" s="24"/>
@@ -7477,7 +7477,7 @@
       <c r="M271" s="30"/>
       <c r="N271" s="31"/>
     </row>
-    <row r="272" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="33"/>
       <c r="B272" s="33"/>
       <c r="C272" s="33"/>
@@ -7493,7 +7493,7 @@
       <c r="M272" s="41"/>
       <c r="N272" s="42"/>
     </row>
-    <row r="273" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="24"/>
       <c r="B273" s="24"/>
       <c r="C273" s="24"/>
@@ -7509,7 +7509,7 @@
       <c r="M273" s="30"/>
       <c r="N273" s="31"/>
     </row>
-    <row r="274" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="33"/>
       <c r="B274" s="33"/>
       <c r="C274" s="33"/>
@@ -7525,7 +7525,7 @@
       <c r="M274" s="41"/>
       <c r="N274" s="42"/>
     </row>
-    <row r="275" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="24"/>
       <c r="B275" s="24"/>
       <c r="C275" s="24"/>
@@ -7541,7 +7541,7 @@
       <c r="M275" s="30"/>
       <c r="N275" s="31"/>
     </row>
-    <row r="276" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="33"/>
       <c r="B276" s="33"/>
       <c r="C276" s="33"/>
@@ -7557,7 +7557,7 @@
       <c r="M276" s="41"/>
       <c r="N276" s="42"/>
     </row>
-    <row r="277" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="24"/>
       <c r="B277" s="24"/>
       <c r="C277" s="24"/>
@@ -7573,7 +7573,7 @@
       <c r="M277" s="30"/>
       <c r="N277" s="31"/>
     </row>
-    <row r="278" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="33"/>
       <c r="B278" s="33"/>
       <c r="C278" s="33"/>
@@ -7589,7 +7589,7 @@
       <c r="M278" s="41"/>
       <c r="N278" s="42"/>
     </row>
-    <row r="279" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="24"/>
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
@@ -7605,7 +7605,7 @@
       <c r="M279" s="30"/>
       <c r="N279" s="31"/>
     </row>
-    <row r="280" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="33"/>
       <c r="B280" s="33"/>
       <c r="C280" s="33"/>
@@ -7621,7 +7621,7 @@
       <c r="M280" s="41"/>
       <c r="N280" s="42"/>
     </row>
-    <row r="281" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="24"/>
       <c r="B281" s="24"/>
       <c r="C281" s="24"/>
@@ -7637,7 +7637,7 @@
       <c r="M281" s="30"/>
       <c r="N281" s="31"/>
     </row>
-    <row r="282" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="33"/>
       <c r="B282" s="33"/>
       <c r="C282" s="33"/>
@@ -7653,7 +7653,7 @@
       <c r="M282" s="41"/>
       <c r="N282" s="42"/>
     </row>
-    <row r="283" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="24"/>
       <c r="B283" s="24"/>
       <c r="C283" s="24"/>
@@ -7669,7 +7669,7 @@
       <c r="M283" s="30"/>
       <c r="N283" s="31"/>
     </row>
-    <row r="284" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33"/>
       <c r="B284" s="33"/>
       <c r="C284" s="33"/>
@@ -7685,7 +7685,7 @@
       <c r="M284" s="41"/>
       <c r="N284" s="42"/>
     </row>
-    <row r="285" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="24"/>
       <c r="B285" s="24"/>
       <c r="C285" s="24"/>
@@ -7701,7 +7701,7 @@
       <c r="M285" s="30"/>
       <c r="N285" s="31"/>
     </row>
-    <row r="286" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="33"/>
       <c r="B286" s="33"/>
       <c r="C286" s="33"/>
@@ -7717,7 +7717,7 @@
       <c r="M286" s="41"/>
       <c r="N286" s="42"/>
     </row>
-    <row r="287" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="24"/>
       <c r="B287" s="24"/>
       <c r="C287" s="24"/>
@@ -7733,7 +7733,7 @@
       <c r="M287" s="30"/>
       <c r="N287" s="31"/>
     </row>
-    <row r="288" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="33"/>
       <c r="B288" s="33"/>
       <c r="C288" s="33"/>
@@ -7749,7 +7749,7 @@
       <c r="M288" s="41"/>
       <c r="N288" s="42"/>
     </row>
-    <row r="289" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="24"/>
       <c r="B289" s="24"/>
       <c r="C289" s="24"/>
@@ -7765,7 +7765,7 @@
       <c r="M289" s="30"/>
       <c r="N289" s="31"/>
     </row>
-    <row r="290" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="33"/>
       <c r="B290" s="33"/>
       <c r="C290" s="33"/>
@@ -7781,7 +7781,7 @@
       <c r="M290" s="41"/>
       <c r="N290" s="42"/>
     </row>
-    <row r="291" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="24"/>
       <c r="B291" s="24"/>
       <c r="C291" s="24"/>
@@ -7797,7 +7797,7 @@
       <c r="M291" s="30"/>
       <c r="N291" s="31"/>
     </row>
-    <row r="292" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="33"/>
       <c r="B292" s="33"/>
       <c r="C292" s="33"/>
@@ -7813,7 +7813,7 @@
       <c r="M292" s="41"/>
       <c r="N292" s="42"/>
     </row>
-    <row r="293" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="24"/>
       <c r="B293" s="24"/>
       <c r="C293" s="24"/>
@@ -7829,7 +7829,7 @@
       <c r="M293" s="30"/>
       <c r="N293" s="31"/>
     </row>
-    <row r="294" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="33"/>
       <c r="B294" s="33"/>
       <c r="C294" s="33"/>
@@ -7845,7 +7845,7 @@
       <c r="M294" s="41"/>
       <c r="N294" s="42"/>
     </row>
-    <row r="295" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="24"/>
       <c r="B295" s="24"/>
       <c r="C295" s="24"/>
@@ -7861,7 +7861,7 @@
       <c r="M295" s="30"/>
       <c r="N295" s="31"/>
     </row>
-    <row r="296" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="33"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -7877,7 +7877,7 @@
       <c r="M296" s="41"/>
       <c r="N296" s="42"/>
     </row>
-    <row r="297" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="24"/>
       <c r="B297" s="24"/>
       <c r="C297" s="24"/>
@@ -7893,7 +7893,7 @@
       <c r="M297" s="30"/>
       <c r="N297" s="31"/>
     </row>
-    <row r="298" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="33"/>
       <c r="B298" s="33"/>
       <c r="C298" s="33"/>
@@ -7909,7 +7909,7 @@
       <c r="M298" s="41"/>
       <c r="N298" s="42"/>
     </row>
-    <row r="299" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="24"/>
       <c r="B299" s="24"/>
       <c r="C299" s="24"/>
@@ -7925,7 +7925,7 @@
       <c r="M299" s="30"/>
       <c r="N299" s="31"/>
     </row>
-    <row r="300" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="33"/>
       <c r="B300" s="33"/>
       <c r="C300" s="33"/>
@@ -7941,7 +7941,7 @@
       <c r="M300" s="41"/>
       <c r="N300" s="42"/>
     </row>
-    <row r="301" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="24"/>
       <c r="B301" s="24"/>
       <c r="C301" s="24"/>
@@ -7957,7 +7957,7 @@
       <c r="M301" s="30"/>
       <c r="N301" s="31"/>
     </row>
-    <row r="302" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="33"/>
       <c r="B302" s="33"/>
       <c r="C302" s="33"/>
@@ -7973,7 +7973,7 @@
       <c r="M302" s="41"/>
       <c r="N302" s="42"/>
     </row>
-    <row r="303" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="24"/>
       <c r="B303" s="24"/>
       <c r="C303" s="24"/>
@@ -7989,7 +7989,7 @@
       <c r="M303" s="30"/>
       <c r="N303" s="31"/>
     </row>
-    <row r="304" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="33"/>
       <c r="B304" s="33"/>
       <c r="C304" s="33"/>
@@ -8005,7 +8005,7 @@
       <c r="M304" s="41"/>
       <c r="N304" s="42"/>
     </row>
-    <row r="305" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="24"/>
       <c r="B305" s="24"/>
       <c r="C305" s="24"/>
@@ -8021,7 +8021,7 @@
       <c r="M305" s="30"/>
       <c r="N305" s="31"/>
     </row>
-    <row r="306" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="33"/>
       <c r="B306" s="33"/>
       <c r="C306" s="33"/>
@@ -8037,7 +8037,7 @@
       <c r="M306" s="41"/>
       <c r="N306" s="42"/>
     </row>
-    <row r="307" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="24"/>
       <c r="B307" s="24"/>
       <c r="C307" s="24"/>
@@ -8053,7 +8053,7 @@
       <c r="M307" s="30"/>
       <c r="N307" s="31"/>
     </row>
-    <row r="308" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="33"/>
       <c r="B308" s="33"/>
       <c r="C308" s="33"/>
@@ -8069,7 +8069,7 @@
       <c r="M308" s="41"/>
       <c r="N308" s="42"/>
     </row>
-    <row r="309" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="24"/>
       <c r="B309" s="24"/>
       <c r="C309" s="24"/>
@@ -8085,7 +8085,7 @@
       <c r="M309" s="30"/>
       <c r="N309" s="31"/>
     </row>
-    <row r="310" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="33"/>
       <c r="B310" s="33"/>
       <c r="C310" s="33"/>
@@ -8101,7 +8101,7 @@
       <c r="M310" s="41"/>
       <c r="N310" s="42"/>
     </row>
-    <row r="311" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="24"/>
       <c r="B311" s="24"/>
       <c r="C311" s="24"/>
@@ -8117,7 +8117,7 @@
       <c r="M311" s="30"/>
       <c r="N311" s="31"/>
     </row>
-    <row r="312" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="33"/>
       <c r="B312" s="33"/>
       <c r="C312" s="33"/>
@@ -8133,7 +8133,7 @@
       <c r="M312" s="41"/>
       <c r="N312" s="42"/>
     </row>
-    <row r="313" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="24"/>
       <c r="B313" s="24"/>
       <c r="C313" s="24"/>
@@ -8149,7 +8149,7 @@
       <c r="M313" s="30"/>
       <c r="N313" s="31"/>
     </row>
-    <row r="314" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="33"/>
       <c r="B314" s="33"/>
       <c r="C314" s="33"/>
@@ -8165,7 +8165,7 @@
       <c r="M314" s="41"/>
       <c r="N314" s="42"/>
     </row>
-    <row r="315" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="24"/>
       <c r="B315" s="24"/>
       <c r="C315" s="24"/>
@@ -8181,7 +8181,7 @@
       <c r="M315" s="30"/>
       <c r="N315" s="31"/>
     </row>
-    <row r="316" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="33"/>
       <c r="B316" s="33"/>
       <c r="C316" s="33"/>
@@ -8197,7 +8197,7 @@
       <c r="M316" s="41"/>
       <c r="N316" s="42"/>
     </row>
-    <row r="317" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="24"/>
       <c r="B317" s="24"/>
       <c r="C317" s="24"/>
@@ -8213,7 +8213,7 @@
       <c r="M317" s="30"/>
       <c r="N317" s="31"/>
     </row>
-    <row r="318" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="33"/>
       <c r="B318" s="33"/>
       <c r="C318" s="33"/>
@@ -8229,7 +8229,7 @@
       <c r="M318" s="41"/>
       <c r="N318" s="42"/>
     </row>
-    <row r="319" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="24"/>
       <c r="B319" s="24"/>
       <c r="C319" s="24"/>
@@ -8245,7 +8245,7 @@
       <c r="M319" s="30"/>
       <c r="N319" s="31"/>
     </row>
-    <row r="320" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="33"/>
       <c r="B320" s="33"/>
       <c r="C320" s="33"/>
@@ -8261,7 +8261,7 @@
       <c r="M320" s="41"/>
       <c r="N320" s="42"/>
     </row>
-    <row r="321" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="24"/>
       <c r="B321" s="24"/>
       <c r="C321" s="24"/>
@@ -8277,7 +8277,7 @@
       <c r="M321" s="30"/>
       <c r="N321" s="31"/>
     </row>
-    <row r="322" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="33"/>
       <c r="B322" s="33"/>
       <c r="C322" s="33"/>
@@ -8293,7 +8293,7 @@
       <c r="M322" s="41"/>
       <c r="N322" s="42"/>
     </row>
-    <row r="323" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="24"/>
       <c r="B323" s="24"/>
       <c r="C323" s="24"/>
@@ -8309,7 +8309,7 @@
       <c r="M323" s="30"/>
       <c r="N323" s="31"/>
     </row>
-    <row r="324" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="33"/>
       <c r="B324" s="33"/>
       <c r="C324" s="33"/>
@@ -8325,7 +8325,7 @@
       <c r="M324" s="41"/>
       <c r="N324" s="42"/>
     </row>
-    <row r="325" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="24"/>
       <c r="B325" s="24"/>
       <c r="C325" s="24"/>
@@ -8341,7 +8341,7 @@
       <c r="M325" s="30"/>
       <c r="N325" s="31"/>
     </row>
-    <row r="326" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="33"/>
       <c r="B326" s="33"/>
       <c r="C326" s="33"/>
@@ -8357,7 +8357,7 @@
       <c r="M326" s="41"/>
       <c r="N326" s="42"/>
     </row>
-    <row r="327" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="24"/>
       <c r="B327" s="24"/>
       <c r="C327" s="24"/>
@@ -8373,7 +8373,7 @@
       <c r="M327" s="30"/>
       <c r="N327" s="31"/>
     </row>
-    <row r="328" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="33"/>
       <c r="B328" s="33"/>
       <c r="C328" s="33"/>
@@ -8389,7 +8389,7 @@
       <c r="M328" s="41"/>
       <c r="N328" s="42"/>
     </row>
-    <row r="329" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="24"/>
       <c r="B329" s="24"/>
       <c r="C329" s="24"/>
@@ -8405,7 +8405,7 @@
       <c r="M329" s="30"/>
       <c r="N329" s="31"/>
     </row>
-    <row r="330" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="33"/>
       <c r="B330" s="33"/>
       <c r="C330" s="33"/>
@@ -8421,7 +8421,7 @@
       <c r="M330" s="41"/>
       <c r="N330" s="42"/>
     </row>
-    <row r="331" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="24"/>
       <c r="B331" s="24"/>
       <c r="C331" s="24"/>
@@ -8437,7 +8437,7 @@
       <c r="M331" s="30"/>
       <c r="N331" s="31"/>
     </row>
-    <row r="332" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="33"/>
       <c r="B332" s="33"/>
       <c r="C332" s="33"/>
@@ -8453,7 +8453,7 @@
       <c r="M332" s="41"/>
       <c r="N332" s="42"/>
     </row>
-    <row r="333" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="24"/>
       <c r="B333" s="24"/>
       <c r="C333" s="24"/>
@@ -8469,7 +8469,7 @@
       <c r="M333" s="30"/>
       <c r="N333" s="31"/>
     </row>
-    <row r="334" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="33"/>
       <c r="B334" s="33"/>
       <c r="C334" s="33"/>
@@ -8485,7 +8485,7 @@
       <c r="M334" s="41"/>
       <c r="N334" s="42"/>
     </row>
-    <row r="335" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="24"/>
       <c r="B335" s="24"/>
       <c r="C335" s="24"/>
@@ -8501,7 +8501,7 @@
       <c r="M335" s="30"/>
       <c r="N335" s="31"/>
     </row>
-    <row r="336" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="33"/>
       <c r="B336" s="33"/>
       <c r="C336" s="33"/>
@@ -8517,7 +8517,7 @@
       <c r="M336" s="41"/>
       <c r="N336" s="42"/>
     </row>
-    <row r="337" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="24"/>
       <c r="B337" s="24"/>
       <c r="C337" s="24"/>
@@ -8533,7 +8533,7 @@
       <c r="M337" s="30"/>
       <c r="N337" s="31"/>
     </row>
-    <row r="338" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="33"/>
       <c r="B338" s="33"/>
       <c r="C338" s="33"/>
@@ -8549,7 +8549,7 @@
       <c r="M338" s="41"/>
       <c r="N338" s="42"/>
     </row>
-    <row r="339" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="24"/>
       <c r="B339" s="24"/>
       <c r="C339" s="24"/>
@@ -8565,7 +8565,7 @@
       <c r="M339" s="30"/>
       <c r="N339" s="31"/>
     </row>
-    <row r="340" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="33"/>
       <c r="B340" s="33"/>
       <c r="C340" s="33"/>
@@ -8581,7 +8581,7 @@
       <c r="M340" s="41"/>
       <c r="N340" s="42"/>
     </row>
-    <row r="341" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="24"/>
       <c r="B341" s="24"/>
       <c r="C341" s="24"/>
@@ -8597,7 +8597,7 @@
       <c r="M341" s="30"/>
       <c r="N341" s="31"/>
     </row>
-    <row r="342" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="33"/>
       <c r="B342" s="33"/>
       <c r="C342" s="33"/>
@@ -8613,7 +8613,7 @@
       <c r="M342" s="41"/>
       <c r="N342" s="42"/>
     </row>
-    <row r="343" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="24"/>
       <c r="B343" s="24"/>
       <c r="C343" s="24"/>
@@ -8629,7 +8629,7 @@
       <c r="M343" s="30"/>
       <c r="N343" s="31"/>
     </row>
-    <row r="344" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="33"/>
       <c r="B344" s="33"/>
       <c r="C344" s="33"/>
@@ -8645,7 +8645,7 @@
       <c r="M344" s="41"/>
       <c r="N344" s="42"/>
     </row>
-    <row r="345" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="24"/>
       <c r="B345" s="24"/>
       <c r="C345" s="24"/>
@@ -8661,7 +8661,7 @@
       <c r="M345" s="30"/>
       <c r="N345" s="31"/>
     </row>
-    <row r="346" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="33"/>
       <c r="B346" s="33"/>
       <c r="C346" s="33"/>
@@ -8677,7 +8677,7 @@
       <c r="M346" s="41"/>
       <c r="N346" s="42"/>
     </row>
-    <row r="347" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="24"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
@@ -8693,7 +8693,7 @@
       <c r="M347" s="30"/>
       <c r="N347" s="31"/>
     </row>
-    <row r="348" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="33"/>
       <c r="B348" s="33"/>
       <c r="C348" s="33"/>
@@ -8709,7 +8709,7 @@
       <c r="M348" s="41"/>
       <c r="N348" s="42"/>
     </row>
-    <row r="349" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="24"/>
       <c r="B349" s="24"/>
       <c r="C349" s="24"/>
@@ -8725,7 +8725,7 @@
       <c r="M349" s="30"/>
       <c r="N349" s="31"/>
     </row>
-    <row r="350" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="33"/>
       <c r="B350" s="33"/>
       <c r="C350" s="33"/>
@@ -8741,7 +8741,7 @@
       <c r="M350" s="41"/>
       <c r="N350" s="42"/>
     </row>
-    <row r="351" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="24"/>
       <c r="B351" s="24"/>
       <c r="C351" s="24"/>
@@ -8757,7 +8757,7 @@
       <c r="M351" s="30"/>
       <c r="N351" s="31"/>
     </row>
-    <row r="352" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="33"/>
       <c r="B352" s="33"/>
       <c r="C352" s="33"/>
@@ -8773,7 +8773,7 @@
       <c r="M352" s="41"/>
       <c r="N352" s="42"/>
     </row>
-    <row r="353" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="24"/>
       <c r="B353" s="24"/>
       <c r="C353" s="24"/>
@@ -8789,7 +8789,7 @@
       <c r="M353" s="30"/>
       <c r="N353" s="31"/>
     </row>
-    <row r="354" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="33"/>
       <c r="B354" s="33"/>
       <c r="C354" s="33"/>
@@ -8805,7 +8805,7 @@
       <c r="M354" s="41"/>
       <c r="N354" s="42"/>
     </row>
-    <row r="355" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="24"/>
       <c r="B355" s="24"/>
       <c r="C355" s="24"/>
@@ -8821,7 +8821,7 @@
       <c r="M355" s="30"/>
       <c r="N355" s="31"/>
     </row>
-    <row r="356" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="33"/>
       <c r="B356" s="33"/>
       <c r="C356" s="33"/>
@@ -8837,7 +8837,7 @@
       <c r="M356" s="41"/>
       <c r="N356" s="42"/>
     </row>
-    <row r="357" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="24"/>
       <c r="B357" s="24"/>
       <c r="C357" s="24"/>
@@ -8853,7 +8853,7 @@
       <c r="M357" s="30"/>
       <c r="N357" s="31"/>
     </row>
-    <row r="358" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="33"/>
       <c r="B358" s="33"/>
       <c r="C358" s="33"/>
@@ -8869,7 +8869,7 @@
       <c r="M358" s="41"/>
       <c r="N358" s="42"/>
     </row>
-    <row r="359" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="24"/>
       <c r="B359" s="24"/>
       <c r="C359" s="24"/>
@@ -8885,7 +8885,7 @@
       <c r="M359" s="30"/>
       <c r="N359" s="31"/>
     </row>
-    <row r="360" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="33"/>
       <c r="B360" s="33"/>
       <c r="C360" s="33"/>
@@ -8901,7 +8901,7 @@
       <c r="M360" s="41"/>
       <c r="N360" s="42"/>
     </row>
-    <row r="361" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="24"/>
       <c r="B361" s="24"/>
       <c r="C361" s="24"/>
@@ -8917,7 +8917,7 @@
       <c r="M361" s="30"/>
       <c r="N361" s="31"/>
     </row>
-    <row r="362" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="33"/>
       <c r="B362" s="33"/>
       <c r="C362" s="33"/>
@@ -8933,7 +8933,7 @@
       <c r="M362" s="41"/>
       <c r="N362" s="42"/>
     </row>
-    <row r="363" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="24"/>
       <c r="B363" s="24"/>
       <c r="C363" s="24"/>
@@ -8949,7 +8949,7 @@
       <c r="M363" s="30"/>
       <c r="N363" s="31"/>
     </row>
-    <row r="364" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="33"/>
       <c r="B364" s="33"/>
       <c r="C364" s="33"/>
@@ -8965,7 +8965,7 @@
       <c r="M364" s="41"/>
       <c r="N364" s="42"/>
     </row>
-    <row r="365" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="24"/>
       <c r="B365" s="24"/>
       <c r="C365" s="24"/>
@@ -8981,7 +8981,7 @@
       <c r="M365" s="30"/>
       <c r="N365" s="31"/>
     </row>
-    <row r="366" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="33"/>
       <c r="B366" s="33"/>
       <c r="C366" s="33"/>
@@ -8997,7 +8997,7 @@
       <c r="M366" s="41"/>
       <c r="N366" s="42"/>
     </row>
-    <row r="367" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="24"/>
       <c r="B367" s="24"/>
       <c r="C367" s="24"/>
@@ -9013,7 +9013,7 @@
       <c r="M367" s="30"/>
       <c r="N367" s="31"/>
     </row>
-    <row r="368" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="33"/>
       <c r="B368" s="33"/>
       <c r="C368" s="33"/>
@@ -9029,7 +9029,7 @@
       <c r="M368" s="41"/>
       <c r="N368" s="42"/>
     </row>
-    <row r="369" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="24"/>
       <c r="B369" s="24"/>
       <c r="C369" s="24"/>
@@ -9045,7 +9045,7 @@
       <c r="M369" s="30"/>
       <c r="N369" s="31"/>
     </row>
-    <row r="370" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="33"/>
       <c r="B370" s="33"/>
       <c r="C370" s="33"/>
@@ -9061,7 +9061,7 @@
       <c r="M370" s="41"/>
       <c r="N370" s="42"/>
     </row>
-    <row r="371" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="24"/>
       <c r="B371" s="24"/>
       <c r="C371" s="24"/>
@@ -9077,7 +9077,7 @@
       <c r="M371" s="30"/>
       <c r="N371" s="31"/>
     </row>
-    <row r="372" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="33"/>
       <c r="B372" s="33"/>
       <c r="C372" s="33"/>
@@ -9093,7 +9093,7 @@
       <c r="M372" s="41"/>
       <c r="N372" s="42"/>
     </row>
-    <row r="373" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="24"/>
       <c r="B373" s="24"/>
       <c r="C373" s="24"/>
@@ -9109,7 +9109,7 @@
       <c r="M373" s="30"/>
       <c r="N373" s="31"/>
     </row>
-    <row r="374" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="46"/>
       <c r="B374" s="46"/>
       <c r="C374" s="46"/>
@@ -9125,9 +9125,9 @@
       <c r="M374" s="47"/>
       <c r="N374" s="47"/>
     </row>
-    <row r="376" spans="1:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:14" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="1:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:14" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A7:F7"/>
@@ -9153,16 +9153,16 @@
   </sheetPr>
   <dimension ref="A1:ALE378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="33" width="8.109375" style="1" customWidth="1"/>
-    <col min="34" max="993" width="9.6640625" style="1" customWidth="1"/>
-    <col min="994" max="994" width="9.6640625" customWidth="1"/>
+    <col min="1" max="33" width="6.7109375" style="1" customWidth="1"/>
+    <col min="34" max="993" width="9.7109375" style="1" customWidth="1"/>
+    <col min="994" max="994" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:993" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:993" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="AJZ1"/>
       <c r="AKA1"/>
@@ -9197,7 +9197,7 @@
       <c r="ALD1"/>
       <c r="ALE1"/>
     </row>
-    <row r="2" spans="1:993" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:993" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJZ2"/>
       <c r="AKA2"/>
       <c r="AKB2"/>
@@ -9231,7 +9231,7 @@
       <c r="ALD2"/>
       <c r="ALE2"/>
     </row>
-    <row r="3" spans="1:993" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:993" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -9266,7 +9266,7 @@
       <c r="AF3" s="59"/>
       <c r="AG3" s="60"/>
     </row>
-    <row r="4" spans="1:993" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:993" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="AF4" s="76"/>
       <c r="AG4" s="77"/>
     </row>
-    <row r="5" spans="1:993" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:993" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74"/>
       <c r="B5" s="74"/>
       <c r="C5" s="74"/>
@@ -9366,7 +9366,7 @@
       <c r="AF5" s="62"/>
       <c r="AG5" s="63"/>
     </row>
-    <row r="6" spans="1:993" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:993" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:993" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:993" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>14</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="AF7" s="65"/>
       <c r="AG7" s="65"/>
     </row>
-    <row r="8" spans="1:993" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:993" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -9553,7 +9553,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="20"/>
     </row>
-    <row r="9" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="24"/>
@@ -9588,7 +9588,7 @@
       <c r="AF9" s="25"/>
       <c r="AG9" s="29"/>
     </row>
-    <row r="10" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="33"/>
@@ -9623,7 +9623,7 @@
       <c r="AF10" s="34"/>
       <c r="AG10" s="38"/>
     </row>
-    <row r="11" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="24"/>
@@ -9658,7 +9658,7 @@
       <c r="AF11" s="25"/>
       <c r="AG11" s="29"/>
     </row>
-    <row r="12" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -9693,7 +9693,7 @@
       <c r="AF12" s="34"/>
       <c r="AG12" s="38"/>
     </row>
-    <row r="13" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
@@ -9728,7 +9728,7 @@
       <c r="AF13" s="25"/>
       <c r="AG13" s="29"/>
     </row>
-    <row r="14" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -9763,7 +9763,7 @@
       <c r="AF14" s="34"/>
       <c r="AG14" s="38"/>
     </row>
-    <row r="15" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
@@ -9798,7 +9798,7 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="29"/>
     </row>
-    <row r="16" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="33"/>
@@ -9833,7 +9833,7 @@
       <c r="AF16" s="34"/>
       <c r="AG16" s="38"/>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
@@ -9868,7 +9868,7 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="29"/>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="33"/>
@@ -9903,7 +9903,7 @@
       <c r="AF18" s="34"/>
       <c r="AG18" s="38"/>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="24"/>
@@ -9938,7 +9938,7 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="29"/>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33"/>
@@ -9973,7 +9973,7 @@
       <c r="AF20" s="34"/>
       <c r="AG20" s="38"/>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="24"/>
@@ -10008,7 +10008,7 @@
       <c r="AF21" s="25"/>
       <c r="AG21" s="29"/>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -10043,7 +10043,7 @@
       <c r="AF22" s="34"/>
       <c r="AG22" s="38"/>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="24"/>
@@ -10078,7 +10078,7 @@
       <c r="AF23" s="25"/>
       <c r="AG23" s="29"/>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
@@ -10113,7 +10113,7 @@
       <c r="AF24" s="34"/>
       <c r="AG24" s="38"/>
     </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="24"/>
@@ -10148,7 +10148,7 @@
       <c r="AF25" s="25"/>
       <c r="AG25" s="29"/>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
@@ -10183,7 +10183,7 @@
       <c r="AF26" s="34"/>
       <c r="AG26" s="38"/>
     </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="24"/>
@@ -10218,7 +10218,7 @@
       <c r="AF27" s="25"/>
       <c r="AG27" s="29"/>
     </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
@@ -10253,7 +10253,7 @@
       <c r="AF28" s="34"/>
       <c r="AG28" s="38"/>
     </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="24"/>
@@ -10288,7 +10288,7 @@
       <c r="AF29" s="25"/>
       <c r="AG29" s="29"/>
     </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -10323,7 +10323,7 @@
       <c r="AF30" s="34"/>
       <c r="AG30" s="38"/>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="24"/>
@@ -10358,7 +10358,7 @@
       <c r="AF31" s="25"/>
       <c r="AG31" s="29"/>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
@@ -10393,7 +10393,7 @@
       <c r="AF32" s="34"/>
       <c r="AG32" s="38"/>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="25"/>
       <c r="C33" s="24"/>
@@ -10428,7 +10428,7 @@
       <c r="AF33" s="25"/>
       <c r="AG33" s="29"/>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>
@@ -10463,7 +10463,7 @@
       <c r="AF34" s="34"/>
       <c r="AG34" s="38"/>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="25"/>
       <c r="C35" s="24"/>
@@ -10498,7 +10498,7 @@
       <c r="AF35" s="25"/>
       <c r="AG35" s="29"/>
     </row>
-    <row r="36" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
       <c r="C36" s="33"/>
@@ -10533,7 +10533,7 @@
       <c r="AF36" s="34"/>
       <c r="AG36" s="38"/>
     </row>
-    <row r="37" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="25"/>
       <c r="C37" s="24"/>
@@ -10568,7 +10568,7 @@
       <c r="AF37" s="25"/>
       <c r="AG37" s="29"/>
     </row>
-    <row r="38" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="C38" s="33"/>
@@ -10603,7 +10603,7 @@
       <c r="AF38" s="34"/>
       <c r="AG38" s="38"/>
     </row>
-    <row r="39" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="25"/>
       <c r="C39" s="24"/>
@@ -10638,7 +10638,7 @@
       <c r="AF39" s="25"/>
       <c r="AG39" s="29"/>
     </row>
-    <row r="40" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
       <c r="C40" s="33"/>
@@ -10673,7 +10673,7 @@
       <c r="AF40" s="34"/>
       <c r="AG40" s="38"/>
     </row>
-    <row r="41" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="24"/>
@@ -10708,7 +10708,7 @@
       <c r="AF41" s="25"/>
       <c r="AG41" s="29"/>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
       <c r="C42" s="33"/>
@@ -10743,7 +10743,7 @@
       <c r="AF42" s="34"/>
       <c r="AG42" s="38"/>
     </row>
-    <row r="43" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="24"/>
@@ -10778,7 +10778,7 @@
       <c r="AF43" s="25"/>
       <c r="AG43" s="29"/>
     </row>
-    <row r="44" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
       <c r="C44" s="33"/>
@@ -10813,7 +10813,7 @@
       <c r="AF44" s="34"/>
       <c r="AG44" s="38"/>
     </row>
-    <row r="45" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
@@ -10848,7 +10848,7 @@
       <c r="AF45" s="25"/>
       <c r="AG45" s="29"/>
     </row>
-    <row r="46" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
       <c r="C46" s="33"/>
@@ -10883,7 +10883,7 @@
       <c r="AF46" s="34"/>
       <c r="AG46" s="38"/>
     </row>
-    <row r="47" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="25"/>
       <c r="C47" s="24"/>
@@ -10918,7 +10918,7 @@
       <c r="AF47" s="25"/>
       <c r="AG47" s="29"/>
     </row>
-    <row r="48" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
       <c r="C48" s="33"/>
@@ -10953,7 +10953,7 @@
       <c r="AF48" s="34"/>
       <c r="AG48" s="38"/>
     </row>
-    <row r="49" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
       <c r="C49" s="24"/>
@@ -10988,7 +10988,7 @@
       <c r="AF49" s="25"/>
       <c r="AG49" s="29"/>
     </row>
-    <row r="50" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
       <c r="C50" s="33"/>
@@ -11023,7 +11023,7 @@
       <c r="AF50" s="34"/>
       <c r="AG50" s="38"/>
     </row>
-    <row r="51" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="25"/>
       <c r="C51" s="24"/>
@@ -11058,7 +11058,7 @@
       <c r="AF51" s="25"/>
       <c r="AG51" s="29"/>
     </row>
-    <row r="52" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="33"/>
@@ -11093,7 +11093,7 @@
       <c r="AF52" s="34"/>
       <c r="AG52" s="38"/>
     </row>
-    <row r="53" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="25"/>
       <c r="C53" s="24"/>
@@ -11128,7 +11128,7 @@
       <c r="AF53" s="25"/>
       <c r="AG53" s="29"/>
     </row>
-    <row r="54" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="33"/>
@@ -11163,7 +11163,7 @@
       <c r="AF54" s="34"/>
       <c r="AG54" s="38"/>
     </row>
-    <row r="55" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="25"/>
       <c r="C55" s="24"/>
@@ -11198,7 +11198,7 @@
       <c r="AF55" s="25"/>
       <c r="AG55" s="29"/>
     </row>
-    <row r="56" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="33"/>
@@ -11233,7 +11233,7 @@
       <c r="AF56" s="34"/>
       <c r="AG56" s="38"/>
     </row>
-    <row r="57" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24"/>
       <c r="B57" s="25"/>
       <c r="C57" s="24"/>
@@ -11268,7 +11268,7 @@
       <c r="AF57" s="25"/>
       <c r="AG57" s="29"/>
     </row>
-    <row r="58" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="33"/>
@@ -11303,7 +11303,7 @@
       <c r="AF58" s="34"/>
       <c r="AG58" s="38"/>
     </row>
-    <row r="59" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="25"/>
       <c r="C59" s="24"/>
@@ -11338,7 +11338,7 @@
       <c r="AF59" s="25"/>
       <c r="AG59" s="29"/>
     </row>
-    <row r="60" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
       <c r="C60" s="33"/>
@@ -11373,7 +11373,7 @@
       <c r="AF60" s="34"/>
       <c r="AG60" s="38"/>
     </row>
-    <row r="61" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24"/>
       <c r="B61" s="25"/>
       <c r="C61" s="24"/>
@@ -11408,7 +11408,7 @@
       <c r="AF61" s="25"/>
       <c r="AG61" s="29"/>
     </row>
-    <row r="62" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="34"/>
       <c r="C62" s="33"/>
@@ -11443,7 +11443,7 @@
       <c r="AF62" s="34"/>
       <c r="AG62" s="38"/>
     </row>
-    <row r="63" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24"/>
       <c r="B63" s="25"/>
       <c r="C63" s="24"/>
@@ -11478,7 +11478,7 @@
       <c r="AF63" s="25"/>
       <c r="AG63" s="29"/>
     </row>
-    <row r="64" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="33"/>
@@ -11513,7 +11513,7 @@
       <c r="AF64" s="34"/>
       <c r="AG64" s="38"/>
     </row>
-    <row r="65" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24"/>
       <c r="B65" s="25"/>
       <c r="C65" s="24"/>
@@ -11548,7 +11548,7 @@
       <c r="AF65" s="25"/>
       <c r="AG65" s="29"/>
     </row>
-    <row r="66" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
       <c r="C66" s="33"/>
@@ -11583,7 +11583,7 @@
       <c r="AF66" s="34"/>
       <c r="AG66" s="38"/>
     </row>
-    <row r="67" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="25"/>
       <c r="C67" s="24"/>
@@ -11618,7 +11618,7 @@
       <c r="AF67" s="25"/>
       <c r="AG67" s="29"/>
     </row>
-    <row r="68" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
       <c r="C68" s="33"/>
@@ -11653,7 +11653,7 @@
       <c r="AF68" s="34"/>
       <c r="AG68" s="38"/>
     </row>
-    <row r="69" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="25"/>
       <c r="C69" s="24"/>
@@ -11688,7 +11688,7 @@
       <c r="AF69" s="25"/>
       <c r="AG69" s="29"/>
     </row>
-    <row r="70" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
       <c r="C70" s="33"/>
@@ -11723,7 +11723,7 @@
       <c r="AF70" s="34"/>
       <c r="AG70" s="38"/>
     </row>
-    <row r="71" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" s="25"/>
       <c r="C71" s="24"/>
@@ -11758,7 +11758,7 @@
       <c r="AF71" s="25"/>
       <c r="AG71" s="29"/>
     </row>
-    <row r="72" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="33"/>
@@ -11793,7 +11793,7 @@
       <c r="AF72" s="34"/>
       <c r="AG72" s="38"/>
     </row>
-    <row r="73" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
       <c r="B73" s="25"/>
       <c r="C73" s="24"/>
@@ -11828,7 +11828,7 @@
       <c r="AF73" s="25"/>
       <c r="AG73" s="29"/>
     </row>
-    <row r="74" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
       <c r="C74" s="33"/>
@@ -11863,7 +11863,7 @@
       <c r="AF74" s="34"/>
       <c r="AG74" s="38"/>
     </row>
-    <row r="75" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
       <c r="B75" s="25"/>
       <c r="C75" s="24"/>
@@ -11898,7 +11898,7 @@
       <c r="AF75" s="25"/>
       <c r="AG75" s="29"/>
     </row>
-    <row r="76" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
       <c r="C76" s="33"/>
@@ -11933,7 +11933,7 @@
       <c r="AF76" s="34"/>
       <c r="AG76" s="38"/>
     </row>
-    <row r="77" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24"/>
       <c r="B77" s="25"/>
       <c r="C77" s="24"/>
@@ -11968,7 +11968,7 @@
       <c r="AF77" s="25"/>
       <c r="AG77" s="29"/>
     </row>
-    <row r="78" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
       <c r="C78" s="33"/>
@@ -12003,7 +12003,7 @@
       <c r="AF78" s="34"/>
       <c r="AG78" s="38"/>
     </row>
-    <row r="79" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24"/>
       <c r="B79" s="25"/>
       <c r="C79" s="24"/>
@@ -12038,7 +12038,7 @@
       <c r="AF79" s="25"/>
       <c r="AG79" s="29"/>
     </row>
-    <row r="80" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
       <c r="C80" s="33"/>
@@ -12073,7 +12073,7 @@
       <c r="AF80" s="34"/>
       <c r="AG80" s="38"/>
     </row>
-    <row r="81" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24"/>
       <c r="B81" s="25"/>
       <c r="C81" s="24"/>
@@ -12108,7 +12108,7 @@
       <c r="AF81" s="25"/>
       <c r="AG81" s="29"/>
     </row>
-    <row r="82" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
       <c r="C82" s="33"/>
@@ -12143,7 +12143,7 @@
       <c r="AF82" s="34"/>
       <c r="AG82" s="38"/>
     </row>
-    <row r="83" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24"/>
       <c r="B83" s="25"/>
       <c r="C83" s="24"/>
@@ -12178,7 +12178,7 @@
       <c r="AF83" s="25"/>
       <c r="AG83" s="29"/>
     </row>
-    <row r="84" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
       <c r="C84" s="33"/>
@@ -12213,7 +12213,7 @@
       <c r="AF84" s="34"/>
       <c r="AG84" s="38"/>
     </row>
-    <row r="85" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
       <c r="B85" s="25"/>
       <c r="C85" s="24"/>
@@ -12248,7 +12248,7 @@
       <c r="AF85" s="25"/>
       <c r="AG85" s="29"/>
     </row>
-    <row r="86" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="34"/>
       <c r="C86" s="33"/>
@@ -12283,7 +12283,7 @@
       <c r="AF86" s="34"/>
       <c r="AG86" s="38"/>
     </row>
-    <row r="87" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24"/>
       <c r="B87" s="25"/>
       <c r="C87" s="24"/>
@@ -12318,7 +12318,7 @@
       <c r="AF87" s="25"/>
       <c r="AG87" s="29"/>
     </row>
-    <row r="88" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="34"/>
       <c r="C88" s="33"/>
@@ -12353,7 +12353,7 @@
       <c r="AF88" s="34"/>
       <c r="AG88" s="38"/>
     </row>
-    <row r="89" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="25"/>
       <c r="C89" s="24"/>
@@ -12388,7 +12388,7 @@
       <c r="AF89" s="25"/>
       <c r="AG89" s="29"/>
     </row>
-    <row r="90" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="34"/>
       <c r="C90" s="33"/>
@@ -12423,7 +12423,7 @@
       <c r="AF90" s="34"/>
       <c r="AG90" s="38"/>
     </row>
-    <row r="91" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24"/>
       <c r="B91" s="25"/>
       <c r="C91" s="24"/>
@@ -12458,7 +12458,7 @@
       <c r="AF91" s="25"/>
       <c r="AG91" s="29"/>
     </row>
-    <row r="92" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="34"/>
       <c r="C92" s="33"/>
@@ -12493,7 +12493,7 @@
       <c r="AF92" s="34"/>
       <c r="AG92" s="38"/>
     </row>
-    <row r="93" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24"/>
       <c r="B93" s="25"/>
       <c r="C93" s="24"/>
@@ -12528,7 +12528,7 @@
       <c r="AF93" s="25"/>
       <c r="AG93" s="29"/>
     </row>
-    <row r="94" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="34"/>
       <c r="C94" s="33"/>
@@ -12563,7 +12563,7 @@
       <c r="AF94" s="34"/>
       <c r="AG94" s="38"/>
     </row>
-    <row r="95" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="24"/>
       <c r="B95" s="25"/>
       <c r="C95" s="24"/>
@@ -12598,7 +12598,7 @@
       <c r="AF95" s="25"/>
       <c r="AG95" s="29"/>
     </row>
-    <row r="96" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="34"/>
       <c r="C96" s="33"/>
@@ -12633,7 +12633,7 @@
       <c r="AF96" s="34"/>
       <c r="AG96" s="38"/>
     </row>
-    <row r="97" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24"/>
       <c r="B97" s="25"/>
       <c r="C97" s="24"/>
@@ -12668,7 +12668,7 @@
       <c r="AF97" s="25"/>
       <c r="AG97" s="29"/>
     </row>
-    <row r="98" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="34"/>
       <c r="C98" s="33"/>
@@ -12703,7 +12703,7 @@
       <c r="AF98" s="34"/>
       <c r="AG98" s="38"/>
     </row>
-    <row r="99" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24"/>
       <c r="B99" s="25"/>
       <c r="C99" s="24"/>
@@ -12738,7 +12738,7 @@
       <c r="AF99" s="25"/>
       <c r="AG99" s="29"/>
     </row>
-    <row r="100" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="34"/>
       <c r="C100" s="33"/>
@@ -12773,7 +12773,7 @@
       <c r="AF100" s="34"/>
       <c r="AG100" s="38"/>
     </row>
-    <row r="101" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24"/>
       <c r="B101" s="25"/>
       <c r="C101" s="24"/>
@@ -12808,7 +12808,7 @@
       <c r="AF101" s="25"/>
       <c r="AG101" s="29"/>
     </row>
-    <row r="102" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="34"/>
       <c r="C102" s="33"/>
@@ -12843,7 +12843,7 @@
       <c r="AF102" s="34"/>
       <c r="AG102" s="38"/>
     </row>
-    <row r="103" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="24"/>
       <c r="B103" s="25"/>
       <c r="C103" s="24"/>
@@ -12878,7 +12878,7 @@
       <c r="AF103" s="25"/>
       <c r="AG103" s="29"/>
     </row>
-    <row r="104" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="34"/>
       <c r="C104" s="33"/>
@@ -12913,7 +12913,7 @@
       <c r="AF104" s="34"/>
       <c r="AG104" s="38"/>
     </row>
-    <row r="105" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
       <c r="B105" s="25"/>
       <c r="C105" s="24"/>
@@ -12948,7 +12948,7 @@
       <c r="AF105" s="25"/>
       <c r="AG105" s="29"/>
     </row>
-    <row r="106" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="34"/>
       <c r="C106" s="33"/>
@@ -12983,7 +12983,7 @@
       <c r="AF106" s="34"/>
       <c r="AG106" s="38"/>
     </row>
-    <row r="107" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="25"/>
       <c r="C107" s="24"/>
@@ -13018,7 +13018,7 @@
       <c r="AF107" s="25"/>
       <c r="AG107" s="29"/>
     </row>
-    <row r="108" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="34"/>
       <c r="C108" s="33"/>
@@ -13053,7 +13053,7 @@
       <c r="AF108" s="34"/>
       <c r="AG108" s="38"/>
     </row>
-    <row r="109" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24"/>
       <c r="B109" s="25"/>
       <c r="C109" s="24"/>
@@ -13088,7 +13088,7 @@
       <c r="AF109" s="25"/>
       <c r="AG109" s="29"/>
     </row>
-    <row r="110" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="34"/>
       <c r="C110" s="33"/>
@@ -13123,7 +13123,7 @@
       <c r="AF110" s="34"/>
       <c r="AG110" s="38"/>
     </row>
-    <row r="111" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24"/>
       <c r="B111" s="25"/>
       <c r="C111" s="24"/>
@@ -13158,7 +13158,7 @@
       <c r="AF111" s="25"/>
       <c r="AG111" s="29"/>
     </row>
-    <row r="112" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="34"/>
       <c r="C112" s="33"/>
@@ -13193,7 +13193,7 @@
       <c r="AF112" s="34"/>
       <c r="AG112" s="38"/>
     </row>
-    <row r="113" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="24"/>
       <c r="B113" s="25"/>
       <c r="C113" s="24"/>
@@ -13228,7 +13228,7 @@
       <c r="AF113" s="25"/>
       <c r="AG113" s="29"/>
     </row>
-    <row r="114" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="33"/>
       <c r="B114" s="34"/>
       <c r="C114" s="33"/>
@@ -13263,7 +13263,7 @@
       <c r="AF114" s="34"/>
       <c r="AG114" s="38"/>
     </row>
-    <row r="115" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="24"/>
       <c r="B115" s="25"/>
       <c r="C115" s="24"/>
@@ -13298,7 +13298,7 @@
       <c r="AF115" s="25"/>
       <c r="AG115" s="29"/>
     </row>
-    <row r="116" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="33"/>
       <c r="B116" s="34"/>
       <c r="C116" s="33"/>
@@ -13333,7 +13333,7 @@
       <c r="AF116" s="34"/>
       <c r="AG116" s="38"/>
     </row>
-    <row r="117" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24"/>
       <c r="B117" s="25"/>
       <c r="C117" s="24"/>
@@ -13368,7 +13368,7 @@
       <c r="AF117" s="25"/>
       <c r="AG117" s="29"/>
     </row>
-    <row r="118" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="34"/>
       <c r="C118" s="33"/>
@@ -13403,7 +13403,7 @@
       <c r="AF118" s="34"/>
       <c r="AG118" s="38"/>
     </row>
-    <row r="119" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="24"/>
       <c r="B119" s="25"/>
       <c r="C119" s="24"/>
@@ -13438,7 +13438,7 @@
       <c r="AF119" s="25"/>
       <c r="AG119" s="29"/>
     </row>
-    <row r="120" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="33"/>
       <c r="B120" s="34"/>
       <c r="C120" s="33"/>
@@ -13473,7 +13473,7 @@
       <c r="AF120" s="34"/>
       <c r="AG120" s="38"/>
     </row>
-    <row r="121" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="24"/>
       <c r="B121" s="25"/>
       <c r="C121" s="24"/>
@@ -13508,7 +13508,7 @@
       <c r="AF121" s="25"/>
       <c r="AG121" s="29"/>
     </row>
-    <row r="122" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="33"/>
       <c r="B122" s="34"/>
       <c r="C122" s="33"/>
@@ -13543,7 +13543,7 @@
       <c r="AF122" s="34"/>
       <c r="AG122" s="38"/>
     </row>
-    <row r="123" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="24"/>
       <c r="B123" s="25"/>
       <c r="C123" s="24"/>
@@ -13578,7 +13578,7 @@
       <c r="AF123" s="25"/>
       <c r="AG123" s="29"/>
     </row>
-    <row r="124" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="33"/>
       <c r="B124" s="34"/>
       <c r="C124" s="33"/>
@@ -13613,7 +13613,7 @@
       <c r="AF124" s="34"/>
       <c r="AG124" s="38"/>
     </row>
-    <row r="125" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="24"/>
       <c r="B125" s="25"/>
       <c r="C125" s="24"/>
@@ -13648,7 +13648,7 @@
       <c r="AF125" s="25"/>
       <c r="AG125" s="29"/>
     </row>
-    <row r="126" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="33"/>
       <c r="B126" s="34"/>
       <c r="C126" s="33"/>
@@ -13683,7 +13683,7 @@
       <c r="AF126" s="34"/>
       <c r="AG126" s="38"/>
     </row>
-    <row r="127" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="24"/>
       <c r="B127" s="25"/>
       <c r="C127" s="24"/>
@@ -13718,7 +13718,7 @@
       <c r="AF127" s="25"/>
       <c r="AG127" s="29"/>
     </row>
-    <row r="128" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="33"/>
       <c r="B128" s="34"/>
       <c r="C128" s="33"/>
@@ -13753,7 +13753,7 @@
       <c r="AF128" s="34"/>
       <c r="AG128" s="38"/>
     </row>
-    <row r="129" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="24"/>
       <c r="B129" s="25"/>
       <c r="C129" s="24"/>
@@ -13788,7 +13788,7 @@
       <c r="AF129" s="25"/>
       <c r="AG129" s="29"/>
     </row>
-    <row r="130" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="33"/>
       <c r="B130" s="34"/>
       <c r="C130" s="33"/>
@@ -13823,7 +13823,7 @@
       <c r="AF130" s="34"/>
       <c r="AG130" s="38"/>
     </row>
-    <row r="131" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24"/>
       <c r="B131" s="25"/>
       <c r="C131" s="24"/>
@@ -13858,7 +13858,7 @@
       <c r="AF131" s="25"/>
       <c r="AG131" s="29"/>
     </row>
-    <row r="132" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="33"/>
       <c r="B132" s="34"/>
       <c r="C132" s="33"/>
@@ -13893,7 +13893,7 @@
       <c r="AF132" s="34"/>
       <c r="AG132" s="38"/>
     </row>
-    <row r="133" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="24"/>
       <c r="B133" s="25"/>
       <c r="C133" s="24"/>
@@ -13928,7 +13928,7 @@
       <c r="AF133" s="25"/>
       <c r="AG133" s="29"/>
     </row>
-    <row r="134" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="33"/>
       <c r="B134" s="34"/>
       <c r="C134" s="33"/>
@@ -13963,7 +13963,7 @@
       <c r="AF134" s="34"/>
       <c r="AG134" s="38"/>
     </row>
-    <row r="135" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="24"/>
       <c r="B135" s="25"/>
       <c r="C135" s="24"/>
@@ -13998,7 +13998,7 @@
       <c r="AF135" s="25"/>
       <c r="AG135" s="29"/>
     </row>
-    <row r="136" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="33"/>
       <c r="B136" s="34"/>
       <c r="C136" s="33"/>
@@ -14033,7 +14033,7 @@
       <c r="AF136" s="34"/>
       <c r="AG136" s="38"/>
     </row>
-    <row r="137" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="24"/>
       <c r="B137" s="25"/>
       <c r="C137" s="24"/>
@@ -14068,7 +14068,7 @@
       <c r="AF137" s="25"/>
       <c r="AG137" s="29"/>
     </row>
-    <row r="138" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="33"/>
       <c r="B138" s="34"/>
       <c r="C138" s="33"/>
@@ -14103,7 +14103,7 @@
       <c r="AF138" s="34"/>
       <c r="AG138" s="38"/>
     </row>
-    <row r="139" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="24"/>
       <c r="B139" s="25"/>
       <c r="C139" s="24"/>
@@ -14138,7 +14138,7 @@
       <c r="AF139" s="25"/>
       <c r="AG139" s="29"/>
     </row>
-    <row r="140" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="33"/>
       <c r="B140" s="34"/>
       <c r="C140" s="33"/>
@@ -14173,7 +14173,7 @@
       <c r="AF140" s="34"/>
       <c r="AG140" s="38"/>
     </row>
-    <row r="141" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="24"/>
       <c r="B141" s="25"/>
       <c r="C141" s="24"/>
@@ -14208,7 +14208,7 @@
       <c r="AF141" s="25"/>
       <c r="AG141" s="29"/>
     </row>
-    <row r="142" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="33"/>
       <c r="B142" s="34"/>
       <c r="C142" s="33"/>
@@ -14243,7 +14243,7 @@
       <c r="AF142" s="34"/>
       <c r="AG142" s="38"/>
     </row>
-    <row r="143" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="24"/>
       <c r="B143" s="25"/>
       <c r="C143" s="24"/>
@@ -14278,7 +14278,7 @@
       <c r="AF143" s="25"/>
       <c r="AG143" s="29"/>
     </row>
-    <row r="144" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="33"/>
       <c r="B144" s="34"/>
       <c r="C144" s="33"/>
@@ -14313,7 +14313,7 @@
       <c r="AF144" s="34"/>
       <c r="AG144" s="38"/>
     </row>
-    <row r="145" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24"/>
       <c r="B145" s="25"/>
       <c r="C145" s="24"/>
@@ -14348,7 +14348,7 @@
       <c r="AF145" s="25"/>
       <c r="AG145" s="29"/>
     </row>
-    <row r="146" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="33"/>
       <c r="B146" s="34"/>
       <c r="C146" s="33"/>
@@ -14383,7 +14383,7 @@
       <c r="AF146" s="34"/>
       <c r="AG146" s="38"/>
     </row>
-    <row r="147" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="24"/>
       <c r="B147" s="25"/>
       <c r="C147" s="24"/>
@@ -14418,7 +14418,7 @@
       <c r="AF147" s="25"/>
       <c r="AG147" s="29"/>
     </row>
-    <row r="148" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="33"/>
       <c r="B148" s="34"/>
       <c r="C148" s="33"/>
@@ -14453,7 +14453,7 @@
       <c r="AF148" s="34"/>
       <c r="AG148" s="38"/>
     </row>
-    <row r="149" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="24"/>
       <c r="B149" s="25"/>
       <c r="C149" s="24"/>
@@ -14488,7 +14488,7 @@
       <c r="AF149" s="25"/>
       <c r="AG149" s="29"/>
     </row>
-    <row r="150" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="33"/>
       <c r="B150" s="34"/>
       <c r="C150" s="33"/>
@@ -14523,7 +14523,7 @@
       <c r="AF150" s="34"/>
       <c r="AG150" s="38"/>
     </row>
-    <row r="151" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="24"/>
       <c r="B151" s="25"/>
       <c r="C151" s="24"/>
@@ -14558,7 +14558,7 @@
       <c r="AF151" s="25"/>
       <c r="AG151" s="29"/>
     </row>
-    <row r="152" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="33"/>
       <c r="B152" s="34"/>
       <c r="C152" s="33"/>
@@ -14593,7 +14593,7 @@
       <c r="AF152" s="34"/>
       <c r="AG152" s="38"/>
     </row>
-    <row r="153" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="24"/>
       <c r="B153" s="25"/>
       <c r="C153" s="24"/>
@@ -14628,7 +14628,7 @@
       <c r="AF153" s="25"/>
       <c r="AG153" s="29"/>
     </row>
-    <row r="154" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="33"/>
       <c r="B154" s="34"/>
       <c r="C154" s="33"/>
@@ -14663,7 +14663,7 @@
       <c r="AF154" s="34"/>
       <c r="AG154" s="38"/>
     </row>
-    <row r="155" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="24"/>
       <c r="B155" s="25"/>
       <c r="C155" s="24"/>
@@ -14698,7 +14698,7 @@
       <c r="AF155" s="25"/>
       <c r="AG155" s="29"/>
     </row>
-    <row r="156" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="33"/>
       <c r="B156" s="34"/>
       <c r="C156" s="33"/>
@@ -14733,7 +14733,7 @@
       <c r="AF156" s="34"/>
       <c r="AG156" s="38"/>
     </row>
-    <row r="157" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="24"/>
       <c r="B157" s="25"/>
       <c r="C157" s="24"/>
@@ -14768,7 +14768,7 @@
       <c r="AF157" s="25"/>
       <c r="AG157" s="29"/>
     </row>
-    <row r="158" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="33"/>
       <c r="B158" s="34"/>
       <c r="C158" s="33"/>
@@ -14803,7 +14803,7 @@
       <c r="AF158" s="34"/>
       <c r="AG158" s="38"/>
     </row>
-    <row r="159" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
       <c r="B159" s="25"/>
       <c r="C159" s="24"/>
@@ -14838,7 +14838,7 @@
       <c r="AF159" s="25"/>
       <c r="AG159" s="29"/>
     </row>
-    <row r="160" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="33"/>
       <c r="B160" s="34"/>
       <c r="C160" s="33"/>
@@ -14873,7 +14873,7 @@
       <c r="AF160" s="34"/>
       <c r="AG160" s="38"/>
     </row>
-    <row r="161" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="24"/>
       <c r="B161" s="25"/>
       <c r="C161" s="24"/>
@@ -14908,7 +14908,7 @@
       <c r="AF161" s="25"/>
       <c r="AG161" s="29"/>
     </row>
-    <row r="162" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="33"/>
       <c r="B162" s="34"/>
       <c r="C162" s="33"/>
@@ -14943,7 +14943,7 @@
       <c r="AF162" s="34"/>
       <c r="AG162" s="38"/>
     </row>
-    <row r="163" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="24"/>
       <c r="B163" s="25"/>
       <c r="C163" s="24"/>
@@ -14978,7 +14978,7 @@
       <c r="AF163" s="25"/>
       <c r="AG163" s="29"/>
     </row>
-    <row r="164" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="33"/>
       <c r="B164" s="34"/>
       <c r="C164" s="33"/>
@@ -15013,7 +15013,7 @@
       <c r="AF164" s="34"/>
       <c r="AG164" s="38"/>
     </row>
-    <row r="165" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24"/>
       <c r="B165" s="25"/>
       <c r="C165" s="24"/>
@@ -15048,7 +15048,7 @@
       <c r="AF165" s="25"/>
       <c r="AG165" s="29"/>
     </row>
-    <row r="166" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="33"/>
       <c r="B166" s="34"/>
       <c r="C166" s="33"/>
@@ -15083,7 +15083,7 @@
       <c r="AF166" s="34"/>
       <c r="AG166" s="38"/>
     </row>
-    <row r="167" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="24"/>
       <c r="B167" s="25"/>
       <c r="C167" s="24"/>
@@ -15118,7 +15118,7 @@
       <c r="AF167" s="25"/>
       <c r="AG167" s="29"/>
     </row>
-    <row r="168" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
       <c r="B168" s="34"/>
       <c r="C168" s="33"/>
@@ -15153,7 +15153,7 @@
       <c r="AF168" s="34"/>
       <c r="AG168" s="38"/>
     </row>
-    <row r="169" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="24"/>
       <c r="B169" s="25"/>
       <c r="C169" s="24"/>
@@ -15188,7 +15188,7 @@
       <c r="AF169" s="25"/>
       <c r="AG169" s="29"/>
     </row>
-    <row r="170" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="33"/>
       <c r="B170" s="34"/>
       <c r="C170" s="33"/>
@@ -15223,7 +15223,7 @@
       <c r="AF170" s="34"/>
       <c r="AG170" s="38"/>
     </row>
-    <row r="171" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="24"/>
       <c r="B171" s="25"/>
       <c r="C171" s="24"/>
@@ -15258,7 +15258,7 @@
       <c r="AF171" s="25"/>
       <c r="AG171" s="29"/>
     </row>
-    <row r="172" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="33"/>
       <c r="B172" s="34"/>
       <c r="C172" s="33"/>
@@ -15293,7 +15293,7 @@
       <c r="AF172" s="34"/>
       <c r="AG172" s="38"/>
     </row>
-    <row r="173" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="24"/>
       <c r="B173" s="25"/>
       <c r="C173" s="24"/>
@@ -15328,7 +15328,7 @@
       <c r="AF173" s="25"/>
       <c r="AG173" s="29"/>
     </row>
-    <row r="174" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="33"/>
       <c r="B174" s="34"/>
       <c r="C174" s="33"/>
@@ -15363,7 +15363,7 @@
       <c r="AF174" s="34"/>
       <c r="AG174" s="38"/>
     </row>
-    <row r="175" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="24"/>
       <c r="B175" s="25"/>
       <c r="C175" s="24"/>
@@ -15398,7 +15398,7 @@
       <c r="AF175" s="25"/>
       <c r="AG175" s="29"/>
     </row>
-    <row r="176" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="33"/>
       <c r="B176" s="34"/>
       <c r="C176" s="33"/>
@@ -15433,7 +15433,7 @@
       <c r="AF176" s="34"/>
       <c r="AG176" s="38"/>
     </row>
-    <row r="177" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="24"/>
       <c r="B177" s="25"/>
       <c r="C177" s="24"/>
@@ -15468,7 +15468,7 @@
       <c r="AF177" s="25"/>
       <c r="AG177" s="29"/>
     </row>
-    <row r="178" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="33"/>
       <c r="B178" s="34"/>
       <c r="C178" s="33"/>
@@ -15503,7 +15503,7 @@
       <c r="AF178" s="34"/>
       <c r="AG178" s="38"/>
     </row>
-    <row r="179" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="24"/>
       <c r="B179" s="25"/>
       <c r="C179" s="24"/>
@@ -15538,7 +15538,7 @@
       <c r="AF179" s="25"/>
       <c r="AG179" s="29"/>
     </row>
-    <row r="180" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="33"/>
       <c r="B180" s="34"/>
       <c r="C180" s="33"/>
@@ -15573,7 +15573,7 @@
       <c r="AF180" s="34"/>
       <c r="AG180" s="38"/>
     </row>
-    <row r="181" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="24"/>
       <c r="B181" s="25"/>
       <c r="C181" s="24"/>
@@ -15608,7 +15608,7 @@
       <c r="AF181" s="25"/>
       <c r="AG181" s="29"/>
     </row>
-    <row r="182" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="33"/>
       <c r="B182" s="34"/>
       <c r="C182" s="33"/>
@@ -15643,7 +15643,7 @@
       <c r="AF182" s="34"/>
       <c r="AG182" s="38"/>
     </row>
-    <row r="183" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="24"/>
       <c r="B183" s="25"/>
       <c r="C183" s="24"/>
@@ -15678,7 +15678,7 @@
       <c r="AF183" s="25"/>
       <c r="AG183" s="29"/>
     </row>
-    <row r="184" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="33"/>
       <c r="B184" s="34"/>
       <c r="C184" s="33"/>
@@ -15713,7 +15713,7 @@
       <c r="AF184" s="34"/>
       <c r="AG184" s="38"/>
     </row>
-    <row r="185" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="24"/>
       <c r="B185" s="25"/>
       <c r="C185" s="24"/>
@@ -15748,7 +15748,7 @@
       <c r="AF185" s="25"/>
       <c r="AG185" s="29"/>
     </row>
-    <row r="186" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="33"/>
       <c r="B186" s="34"/>
       <c r="C186" s="33"/>
@@ -15783,7 +15783,7 @@
       <c r="AF186" s="34"/>
       <c r="AG186" s="38"/>
     </row>
-    <row r="187" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="24"/>
       <c r="B187" s="25"/>
       <c r="C187" s="24"/>
@@ -15818,7 +15818,7 @@
       <c r="AF187" s="25"/>
       <c r="AG187" s="29"/>
     </row>
-    <row r="188" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="33"/>
       <c r="B188" s="34"/>
       <c r="C188" s="33"/>
@@ -15853,7 +15853,7 @@
       <c r="AF188" s="34"/>
       <c r="AG188" s="38"/>
     </row>
-    <row r="189" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="24"/>
       <c r="B189" s="25"/>
       <c r="C189" s="24"/>
@@ -15888,7 +15888,7 @@
       <c r="AF189" s="25"/>
       <c r="AG189" s="29"/>
     </row>
-    <row r="190" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="33"/>
       <c r="B190" s="34"/>
       <c r="C190" s="33"/>
@@ -15923,7 +15923,7 @@
       <c r="AF190" s="34"/>
       <c r="AG190" s="38"/>
     </row>
-    <row r="191" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="24"/>
       <c r="B191" s="25"/>
       <c r="C191" s="24"/>
@@ -15958,7 +15958,7 @@
       <c r="AF191" s="25"/>
       <c r="AG191" s="29"/>
     </row>
-    <row r="192" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="33"/>
       <c r="B192" s="34"/>
       <c r="C192" s="33"/>
@@ -15993,7 +15993,7 @@
       <c r="AF192" s="34"/>
       <c r="AG192" s="38"/>
     </row>
-    <row r="193" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="24"/>
       <c r="B193" s="25"/>
       <c r="C193" s="24"/>
@@ -16028,7 +16028,7 @@
       <c r="AF193" s="25"/>
       <c r="AG193" s="29"/>
     </row>
-    <row r="194" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="33"/>
       <c r="B194" s="34"/>
       <c r="C194" s="33"/>
@@ -16063,7 +16063,7 @@
       <c r="AF194" s="34"/>
       <c r="AG194" s="38"/>
     </row>
-    <row r="195" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="24"/>
       <c r="B195" s="25"/>
       <c r="C195" s="24"/>
@@ -16098,7 +16098,7 @@
       <c r="AF195" s="25"/>
       <c r="AG195" s="29"/>
     </row>
-    <row r="196" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="33"/>
       <c r="B196" s="34"/>
       <c r="C196" s="33"/>
@@ -16133,7 +16133,7 @@
       <c r="AF196" s="34"/>
       <c r="AG196" s="38"/>
     </row>
-    <row r="197" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="24"/>
       <c r="B197" s="25"/>
       <c r="C197" s="24"/>
@@ -16168,7 +16168,7 @@
       <c r="AF197" s="25"/>
       <c r="AG197" s="29"/>
     </row>
-    <row r="198" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="33"/>
       <c r="B198" s="34"/>
       <c r="C198" s="33"/>
@@ -16203,7 +16203,7 @@
       <c r="AF198" s="34"/>
       <c r="AG198" s="38"/>
     </row>
-    <row r="199" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="24"/>
       <c r="B199" s="25"/>
       <c r="C199" s="24"/>
@@ -16238,7 +16238,7 @@
       <c r="AF199" s="25"/>
       <c r="AG199" s="29"/>
     </row>
-    <row r="200" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="33"/>
       <c r="B200" s="34"/>
       <c r="C200" s="33"/>
@@ -16273,7 +16273,7 @@
       <c r="AF200" s="34"/>
       <c r="AG200" s="38"/>
     </row>
-    <row r="201" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="24"/>
       <c r="B201" s="25"/>
       <c r="C201" s="24"/>
@@ -16308,7 +16308,7 @@
       <c r="AF201" s="25"/>
       <c r="AG201" s="29"/>
     </row>
-    <row r="202" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="33"/>
       <c r="B202" s="34"/>
       <c r="C202" s="33"/>
@@ -16343,7 +16343,7 @@
       <c r="AF202" s="34"/>
       <c r="AG202" s="38"/>
     </row>
-    <row r="203" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="24"/>
       <c r="B203" s="25"/>
       <c r="C203" s="24"/>
@@ -16378,7 +16378,7 @@
       <c r="AF203" s="25"/>
       <c r="AG203" s="29"/>
     </row>
-    <row r="204" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="33"/>
       <c r="B204" s="34"/>
       <c r="C204" s="33"/>
@@ -16413,7 +16413,7 @@
       <c r="AF204" s="34"/>
       <c r="AG204" s="38"/>
     </row>
-    <row r="205" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="24"/>
       <c r="B205" s="25"/>
       <c r="C205" s="24"/>
@@ -16448,7 +16448,7 @@
       <c r="AF205" s="25"/>
       <c r="AG205" s="29"/>
     </row>
-    <row r="206" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="33"/>
       <c r="B206" s="34"/>
       <c r="C206" s="33"/>
@@ -16483,7 +16483,7 @@
       <c r="AF206" s="34"/>
       <c r="AG206" s="38"/>
     </row>
-    <row r="207" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="24"/>
       <c r="B207" s="25"/>
       <c r="C207" s="24"/>
@@ -16518,7 +16518,7 @@
       <c r="AF207" s="25"/>
       <c r="AG207" s="29"/>
     </row>
-    <row r="208" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="33"/>
       <c r="B208" s="34"/>
       <c r="C208" s="33"/>
@@ -16553,7 +16553,7 @@
       <c r="AF208" s="34"/>
       <c r="AG208" s="38"/>
     </row>
-    <row r="209" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="24"/>
       <c r="B209" s="25"/>
       <c r="C209" s="24"/>
@@ -16588,7 +16588,7 @@
       <c r="AF209" s="25"/>
       <c r="AG209" s="29"/>
     </row>
-    <row r="210" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="33"/>
       <c r="B210" s="34"/>
       <c r="C210" s="33"/>
@@ -16623,7 +16623,7 @@
       <c r="AF210" s="34"/>
       <c r="AG210" s="38"/>
     </row>
-    <row r="211" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="24"/>
       <c r="B211" s="25"/>
       <c r="C211" s="24"/>
@@ -16658,7 +16658,7 @@
       <c r="AF211" s="25"/>
       <c r="AG211" s="29"/>
     </row>
-    <row r="212" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="33"/>
       <c r="B212" s="34"/>
       <c r="C212" s="33"/>
@@ -16693,7 +16693,7 @@
       <c r="AF212" s="34"/>
       <c r="AG212" s="38"/>
     </row>
-    <row r="213" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="24"/>
       <c r="B213" s="25"/>
       <c r="C213" s="24"/>
@@ -16728,7 +16728,7 @@
       <c r="AF213" s="25"/>
       <c r="AG213" s="29"/>
     </row>
-    <row r="214" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="33"/>
       <c r="B214" s="34"/>
       <c r="C214" s="33"/>
@@ -16763,7 +16763,7 @@
       <c r="AF214" s="34"/>
       <c r="AG214" s="38"/>
     </row>
-    <row r="215" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="24"/>
       <c r="B215" s="25"/>
       <c r="C215" s="24"/>
@@ -16798,7 +16798,7 @@
       <c r="AF215" s="25"/>
       <c r="AG215" s="29"/>
     </row>
-    <row r="216" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="33"/>
       <c r="B216" s="34"/>
       <c r="C216" s="33"/>
@@ -16833,7 +16833,7 @@
       <c r="AF216" s="34"/>
       <c r="AG216" s="38"/>
     </row>
-    <row r="217" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="24"/>
       <c r="B217" s="25"/>
       <c r="C217" s="24"/>
@@ -16868,7 +16868,7 @@
       <c r="AF217" s="25"/>
       <c r="AG217" s="29"/>
     </row>
-    <row r="218" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="33"/>
       <c r="B218" s="34"/>
       <c r="C218" s="33"/>
@@ -16903,7 +16903,7 @@
       <c r="AF218" s="34"/>
       <c r="AG218" s="38"/>
     </row>
-    <row r="219" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="24"/>
       <c r="B219" s="25"/>
       <c r="C219" s="24"/>
@@ -16938,7 +16938,7 @@
       <c r="AF219" s="25"/>
       <c r="AG219" s="29"/>
     </row>
-    <row r="220" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="33"/>
       <c r="B220" s="34"/>
       <c r="C220" s="33"/>
@@ -16973,7 +16973,7 @@
       <c r="AF220" s="34"/>
       <c r="AG220" s="38"/>
     </row>
-    <row r="221" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="24"/>
       <c r="B221" s="25"/>
       <c r="C221" s="24"/>
@@ -17008,7 +17008,7 @@
       <c r="AF221" s="25"/>
       <c r="AG221" s="29"/>
     </row>
-    <row r="222" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="33"/>
       <c r="B222" s="34"/>
       <c r="C222" s="33"/>
@@ -17043,7 +17043,7 @@
       <c r="AF222" s="34"/>
       <c r="AG222" s="38"/>
     </row>
-    <row r="223" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="24"/>
       <c r="B223" s="25"/>
       <c r="C223" s="24"/>
@@ -17078,7 +17078,7 @@
       <c r="AF223" s="25"/>
       <c r="AG223" s="29"/>
     </row>
-    <row r="224" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="33"/>
       <c r="B224" s="34"/>
       <c r="C224" s="33"/>
@@ -17113,7 +17113,7 @@
       <c r="AF224" s="34"/>
       <c r="AG224" s="38"/>
     </row>
-    <row r="225" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="24"/>
       <c r="B225" s="25"/>
       <c r="C225" s="24"/>
@@ -17148,7 +17148,7 @@
       <c r="AF225" s="25"/>
       <c r="AG225" s="29"/>
     </row>
-    <row r="226" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="33"/>
       <c r="B226" s="34"/>
       <c r="C226" s="33"/>
@@ -17183,7 +17183,7 @@
       <c r="AF226" s="34"/>
       <c r="AG226" s="38"/>
     </row>
-    <row r="227" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="24"/>
       <c r="B227" s="25"/>
       <c r="C227" s="24"/>
@@ -17218,7 +17218,7 @@
       <c r="AF227" s="25"/>
       <c r="AG227" s="29"/>
     </row>
-    <row r="228" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="33"/>
       <c r="B228" s="34"/>
       <c r="C228" s="33"/>
@@ -17253,7 +17253,7 @@
       <c r="AF228" s="34"/>
       <c r="AG228" s="38"/>
     </row>
-    <row r="229" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="24"/>
       <c r="B229" s="25"/>
       <c r="C229" s="24"/>
@@ -17288,7 +17288,7 @@
       <c r="AF229" s="25"/>
       <c r="AG229" s="29"/>
     </row>
-    <row r="230" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33"/>
       <c r="B230" s="34"/>
       <c r="C230" s="33"/>
@@ -17323,7 +17323,7 @@
       <c r="AF230" s="34"/>
       <c r="AG230" s="38"/>
     </row>
-    <row r="231" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="24"/>
       <c r="B231" s="25"/>
       <c r="C231" s="24"/>
@@ -17358,7 +17358,7 @@
       <c r="AF231" s="25"/>
       <c r="AG231" s="29"/>
     </row>
-    <row r="232" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="33"/>
       <c r="B232" s="34"/>
       <c r="C232" s="33"/>
@@ -17393,7 +17393,7 @@
       <c r="AF232" s="34"/>
       <c r="AG232" s="38"/>
     </row>
-    <row r="233" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="24"/>
       <c r="B233" s="25"/>
       <c r="C233" s="24"/>
@@ -17428,7 +17428,7 @@
       <c r="AF233" s="25"/>
       <c r="AG233" s="29"/>
     </row>
-    <row r="234" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="33"/>
       <c r="B234" s="34"/>
       <c r="C234" s="33"/>
@@ -17463,7 +17463,7 @@
       <c r="AF234" s="34"/>
       <c r="AG234" s="38"/>
     </row>
-    <row r="235" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="24"/>
       <c r="B235" s="25"/>
       <c r="C235" s="24"/>
@@ -17498,7 +17498,7 @@
       <c r="AF235" s="25"/>
       <c r="AG235" s="29"/>
     </row>
-    <row r="236" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="33"/>
       <c r="B236" s="34"/>
       <c r="C236" s="33"/>
@@ -17533,7 +17533,7 @@
       <c r="AF236" s="34"/>
       <c r="AG236" s="38"/>
     </row>
-    <row r="237" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="24"/>
       <c r="B237" s="25"/>
       <c r="C237" s="24"/>
@@ -17568,7 +17568,7 @@
       <c r="AF237" s="25"/>
       <c r="AG237" s="29"/>
     </row>
-    <row r="238" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="33"/>
       <c r="B238" s="34"/>
       <c r="C238" s="33"/>
@@ -17603,7 +17603,7 @@
       <c r="AF238" s="34"/>
       <c r="AG238" s="38"/>
     </row>
-    <row r="239" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="24"/>
       <c r="B239" s="25"/>
       <c r="C239" s="24"/>
@@ -17638,7 +17638,7 @@
       <c r="AF239" s="25"/>
       <c r="AG239" s="29"/>
     </row>
-    <row r="240" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="33"/>
       <c r="B240" s="34"/>
       <c r="C240" s="33"/>
@@ -17673,7 +17673,7 @@
       <c r="AF240" s="34"/>
       <c r="AG240" s="38"/>
     </row>
-    <row r="241" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="24"/>
       <c r="B241" s="25"/>
       <c r="C241" s="24"/>
@@ -17708,7 +17708,7 @@
       <c r="AF241" s="25"/>
       <c r="AG241" s="29"/>
     </row>
-    <row r="242" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="33"/>
       <c r="B242" s="34"/>
       <c r="C242" s="33"/>
@@ -17743,7 +17743,7 @@
       <c r="AF242" s="34"/>
       <c r="AG242" s="38"/>
     </row>
-    <row r="243" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="24"/>
       <c r="B243" s="25"/>
       <c r="C243" s="24"/>
@@ -17778,7 +17778,7 @@
       <c r="AF243" s="25"/>
       <c r="AG243" s="29"/>
     </row>
-    <row r="244" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="33"/>
       <c r="B244" s="34"/>
       <c r="C244" s="33"/>
@@ -17813,7 +17813,7 @@
       <c r="AF244" s="34"/>
       <c r="AG244" s="38"/>
     </row>
-    <row r="245" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="24"/>
       <c r="B245" s="25"/>
       <c r="C245" s="24"/>
@@ -17848,7 +17848,7 @@
       <c r="AF245" s="25"/>
       <c r="AG245" s="29"/>
     </row>
-    <row r="246" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="33"/>
       <c r="B246" s="34"/>
       <c r="C246" s="33"/>
@@ -17883,7 +17883,7 @@
       <c r="AF246" s="34"/>
       <c r="AG246" s="38"/>
     </row>
-    <row r="247" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="24"/>
       <c r="B247" s="25"/>
       <c r="C247" s="24"/>
@@ -17918,7 +17918,7 @@
       <c r="AF247" s="25"/>
       <c r="AG247" s="29"/>
     </row>
-    <row r="248" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="33"/>
       <c r="B248" s="34"/>
       <c r="C248" s="33"/>
@@ -17953,7 +17953,7 @@
       <c r="AF248" s="34"/>
       <c r="AG248" s="38"/>
     </row>
-    <row r="249" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="24"/>
       <c r="B249" s="25"/>
       <c r="C249" s="24"/>
@@ -17988,7 +17988,7 @@
       <c r="AF249" s="25"/>
       <c r="AG249" s="29"/>
     </row>
-    <row r="250" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="33"/>
       <c r="B250" s="34"/>
       <c r="C250" s="33"/>
@@ -18023,7 +18023,7 @@
       <c r="AF250" s="34"/>
       <c r="AG250" s="38"/>
     </row>
-    <row r="251" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="24"/>
       <c r="B251" s="25"/>
       <c r="C251" s="24"/>
@@ -18058,7 +18058,7 @@
       <c r="AF251" s="25"/>
       <c r="AG251" s="29"/>
     </row>
-    <row r="252" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="33"/>
       <c r="B252" s="34"/>
       <c r="C252" s="33"/>
@@ -18093,7 +18093,7 @@
       <c r="AF252" s="34"/>
       <c r="AG252" s="38"/>
     </row>
-    <row r="253" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="24"/>
       <c r="B253" s="25"/>
       <c r="C253" s="24"/>
@@ -18128,7 +18128,7 @@
       <c r="AF253" s="25"/>
       <c r="AG253" s="29"/>
     </row>
-    <row r="254" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="33"/>
       <c r="B254" s="34"/>
       <c r="C254" s="33"/>
@@ -18163,7 +18163,7 @@
       <c r="AF254" s="34"/>
       <c r="AG254" s="38"/>
     </row>
-    <row r="255" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="24"/>
       <c r="B255" s="25"/>
       <c r="C255" s="24"/>
@@ -18198,7 +18198,7 @@
       <c r="AF255" s="25"/>
       <c r="AG255" s="29"/>
     </row>
-    <row r="256" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="33"/>
       <c r="B256" s="34"/>
       <c r="C256" s="33"/>
@@ -18233,7 +18233,7 @@
       <c r="AF256" s="34"/>
       <c r="AG256" s="38"/>
     </row>
-    <row r="257" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="24"/>
       <c r="B257" s="25"/>
       <c r="C257" s="24"/>
@@ -18268,7 +18268,7 @@
       <c r="AF257" s="25"/>
       <c r="AG257" s="29"/>
     </row>
-    <row r="258" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="33"/>
       <c r="B258" s="34"/>
       <c r="C258" s="33"/>
@@ -18303,7 +18303,7 @@
       <c r="AF258" s="34"/>
       <c r="AG258" s="38"/>
     </row>
-    <row r="259" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="24"/>
       <c r="B259" s="25"/>
       <c r="C259" s="24"/>
@@ -18338,7 +18338,7 @@
       <c r="AF259" s="25"/>
       <c r="AG259" s="29"/>
     </row>
-    <row r="260" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="33"/>
       <c r="B260" s="34"/>
       <c r="C260" s="33"/>
@@ -18373,7 +18373,7 @@
       <c r="AF260" s="34"/>
       <c r="AG260" s="38"/>
     </row>
-    <row r="261" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="24"/>
       <c r="B261" s="25"/>
       <c r="C261" s="24"/>
@@ -18408,7 +18408,7 @@
       <c r="AF261" s="25"/>
       <c r="AG261" s="29"/>
     </row>
-    <row r="262" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="33"/>
       <c r="B262" s="34"/>
       <c r="C262" s="33"/>
@@ -18443,7 +18443,7 @@
       <c r="AF262" s="34"/>
       <c r="AG262" s="38"/>
     </row>
-    <row r="263" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="24"/>
       <c r="B263" s="25"/>
       <c r="C263" s="24"/>
@@ -18478,7 +18478,7 @@
       <c r="AF263" s="25"/>
       <c r="AG263" s="29"/>
     </row>
-    <row r="264" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="33"/>
       <c r="B264" s="34"/>
       <c r="C264" s="33"/>
@@ -18513,7 +18513,7 @@
       <c r="AF264" s="34"/>
       <c r="AG264" s="38"/>
     </row>
-    <row r="265" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="24"/>
       <c r="B265" s="25"/>
       <c r="C265" s="24"/>
@@ -18548,7 +18548,7 @@
       <c r="AF265" s="25"/>
       <c r="AG265" s="29"/>
     </row>
-    <row r="266" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="33"/>
       <c r="B266" s="34"/>
       <c r="C266" s="33"/>
@@ -18583,7 +18583,7 @@
       <c r="AF266" s="34"/>
       <c r="AG266" s="38"/>
     </row>
-    <row r="267" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="24"/>
       <c r="B267" s="25"/>
       <c r="C267" s="24"/>
@@ -18618,7 +18618,7 @@
       <c r="AF267" s="25"/>
       <c r="AG267" s="29"/>
     </row>
-    <row r="268" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="33"/>
       <c r="B268" s="34"/>
       <c r="C268" s="33"/>
@@ -18653,7 +18653,7 @@
       <c r="AF268" s="34"/>
       <c r="AG268" s="38"/>
     </row>
-    <row r="269" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="24"/>
       <c r="B269" s="25"/>
       <c r="C269" s="24"/>
@@ -18688,7 +18688,7 @@
       <c r="AF269" s="25"/>
       <c r="AG269" s="29"/>
     </row>
-    <row r="270" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="33"/>
       <c r="B270" s="34"/>
       <c r="C270" s="33"/>
@@ -18723,7 +18723,7 @@
       <c r="AF270" s="34"/>
       <c r="AG270" s="38"/>
     </row>
-    <row r="271" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="24"/>
       <c r="B271" s="25"/>
       <c r="C271" s="24"/>
@@ -18758,7 +18758,7 @@
       <c r="AF271" s="25"/>
       <c r="AG271" s="29"/>
     </row>
-    <row r="272" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="33"/>
       <c r="B272" s="34"/>
       <c r="C272" s="33"/>
@@ -18793,7 +18793,7 @@
       <c r="AF272" s="34"/>
       <c r="AG272" s="38"/>
     </row>
-    <row r="273" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="24"/>
       <c r="B273" s="25"/>
       <c r="C273" s="24"/>
@@ -18828,7 +18828,7 @@
       <c r="AF273" s="25"/>
       <c r="AG273" s="29"/>
     </row>
-    <row r="274" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="33"/>
       <c r="B274" s="34"/>
       <c r="C274" s="33"/>
@@ -18863,7 +18863,7 @@
       <c r="AF274" s="34"/>
       <c r="AG274" s="38"/>
     </row>
-    <row r="275" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="24"/>
       <c r="B275" s="25"/>
       <c r="C275" s="24"/>
@@ -18898,7 +18898,7 @@
       <c r="AF275" s="25"/>
       <c r="AG275" s="29"/>
     </row>
-    <row r="276" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="33"/>
       <c r="B276" s="34"/>
       <c r="C276" s="33"/>
@@ -18933,7 +18933,7 @@
       <c r="AF276" s="34"/>
       <c r="AG276" s="38"/>
     </row>
-    <row r="277" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="24"/>
       <c r="B277" s="25"/>
       <c r="C277" s="24"/>
@@ -18968,7 +18968,7 @@
       <c r="AF277" s="25"/>
       <c r="AG277" s="29"/>
     </row>
-    <row r="278" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="33"/>
       <c r="B278" s="34"/>
       <c r="C278" s="33"/>
@@ -19003,7 +19003,7 @@
       <c r="AF278" s="34"/>
       <c r="AG278" s="38"/>
     </row>
-    <row r="279" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="24"/>
       <c r="B279" s="25"/>
       <c r="C279" s="24"/>
@@ -19038,7 +19038,7 @@
       <c r="AF279" s="25"/>
       <c r="AG279" s="29"/>
     </row>
-    <row r="280" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="33"/>
       <c r="B280" s="34"/>
       <c r="C280" s="33"/>
@@ -19073,7 +19073,7 @@
       <c r="AF280" s="34"/>
       <c r="AG280" s="38"/>
     </row>
-    <row r="281" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="24"/>
       <c r="B281" s="25"/>
       <c r="C281" s="24"/>
@@ -19108,7 +19108,7 @@
       <c r="AF281" s="25"/>
       <c r="AG281" s="29"/>
     </row>
-    <row r="282" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="33"/>
       <c r="B282" s="34"/>
       <c r="C282" s="33"/>
@@ -19143,7 +19143,7 @@
       <c r="AF282" s="34"/>
       <c r="AG282" s="38"/>
     </row>
-    <row r="283" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="24"/>
       <c r="B283" s="25"/>
       <c r="C283" s="24"/>
@@ -19178,7 +19178,7 @@
       <c r="AF283" s="25"/>
       <c r="AG283" s="29"/>
     </row>
-    <row r="284" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33"/>
       <c r="B284" s="34"/>
       <c r="C284" s="33"/>
@@ -19213,7 +19213,7 @@
       <c r="AF284" s="34"/>
       <c r="AG284" s="38"/>
     </row>
-    <row r="285" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="24"/>
       <c r="B285" s="25"/>
       <c r="C285" s="24"/>
@@ -19248,7 +19248,7 @@
       <c r="AF285" s="25"/>
       <c r="AG285" s="29"/>
     </row>
-    <row r="286" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="33"/>
       <c r="B286" s="34"/>
       <c r="C286" s="33"/>
@@ -19283,7 +19283,7 @@
       <c r="AF286" s="34"/>
       <c r="AG286" s="38"/>
     </row>
-    <row r="287" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="24"/>
       <c r="B287" s="25"/>
       <c r="C287" s="24"/>
@@ -19318,7 +19318,7 @@
       <c r="AF287" s="25"/>
       <c r="AG287" s="29"/>
     </row>
-    <row r="288" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="33"/>
       <c r="B288" s="34"/>
       <c r="C288" s="33"/>
@@ -19353,7 +19353,7 @@
       <c r="AF288" s="34"/>
       <c r="AG288" s="38"/>
     </row>
-    <row r="289" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="24"/>
       <c r="B289" s="25"/>
       <c r="C289" s="24"/>
@@ -19388,7 +19388,7 @@
       <c r="AF289" s="25"/>
       <c r="AG289" s="29"/>
     </row>
-    <row r="290" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="33"/>
       <c r="B290" s="34"/>
       <c r="C290" s="33"/>
@@ -19423,7 +19423,7 @@
       <c r="AF290" s="34"/>
       <c r="AG290" s="38"/>
     </row>
-    <row r="291" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="24"/>
       <c r="B291" s="25"/>
       <c r="C291" s="24"/>
@@ -19458,7 +19458,7 @@
       <c r="AF291" s="25"/>
       <c r="AG291" s="29"/>
     </row>
-    <row r="292" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="33"/>
       <c r="B292" s="34"/>
       <c r="C292" s="33"/>
@@ -19493,7 +19493,7 @@
       <c r="AF292" s="34"/>
       <c r="AG292" s="38"/>
     </row>
-    <row r="293" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="24"/>
       <c r="B293" s="25"/>
       <c r="C293" s="24"/>
@@ -19528,7 +19528,7 @@
       <c r="AF293" s="25"/>
       <c r="AG293" s="29"/>
     </row>
-    <row r="294" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="33"/>
       <c r="B294" s="34"/>
       <c r="C294" s="33"/>
@@ -19563,7 +19563,7 @@
       <c r="AF294" s="34"/>
       <c r="AG294" s="38"/>
     </row>
-    <row r="295" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="24"/>
       <c r="B295" s="25"/>
       <c r="C295" s="24"/>
@@ -19598,7 +19598,7 @@
       <c r="AF295" s="25"/>
       <c r="AG295" s="29"/>
     </row>
-    <row r="296" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="33"/>
       <c r="B296" s="34"/>
       <c r="C296" s="33"/>
@@ -19633,7 +19633,7 @@
       <c r="AF296" s="34"/>
       <c r="AG296" s="38"/>
     </row>
-    <row r="297" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="24"/>
       <c r="B297" s="25"/>
       <c r="C297" s="24"/>
@@ -19668,7 +19668,7 @@
       <c r="AF297" s="25"/>
       <c r="AG297" s="29"/>
     </row>
-    <row r="298" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="33"/>
       <c r="B298" s="34"/>
       <c r="C298" s="33"/>
@@ -19703,7 +19703,7 @@
       <c r="AF298" s="34"/>
       <c r="AG298" s="38"/>
     </row>
-    <row r="299" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="24"/>
       <c r="B299" s="25"/>
       <c r="C299" s="24"/>
@@ -19738,7 +19738,7 @@
       <c r="AF299" s="25"/>
       <c r="AG299" s="29"/>
     </row>
-    <row r="300" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="33"/>
       <c r="B300" s="34"/>
       <c r="C300" s="33"/>
@@ -19773,7 +19773,7 @@
       <c r="AF300" s="34"/>
       <c r="AG300" s="38"/>
     </row>
-    <row r="301" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="24"/>
       <c r="B301" s="25"/>
       <c r="C301" s="24"/>
@@ -19808,7 +19808,7 @@
       <c r="AF301" s="25"/>
       <c r="AG301" s="29"/>
     </row>
-    <row r="302" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="33"/>
       <c r="B302" s="34"/>
       <c r="C302" s="33"/>
@@ -19843,7 +19843,7 @@
       <c r="AF302" s="34"/>
       <c r="AG302" s="38"/>
     </row>
-    <row r="303" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="24"/>
       <c r="B303" s="25"/>
       <c r="C303" s="24"/>
@@ -19878,7 +19878,7 @@
       <c r="AF303" s="25"/>
       <c r="AG303" s="29"/>
     </row>
-    <row r="304" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="33"/>
       <c r="B304" s="34"/>
       <c r="C304" s="33"/>
@@ -19913,7 +19913,7 @@
       <c r="AF304" s="34"/>
       <c r="AG304" s="38"/>
     </row>
-    <row r="305" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="24"/>
       <c r="B305" s="25"/>
       <c r="C305" s="24"/>
@@ -19948,7 +19948,7 @@
       <c r="AF305" s="25"/>
       <c r="AG305" s="29"/>
     </row>
-    <row r="306" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="33"/>
       <c r="B306" s="34"/>
       <c r="C306" s="33"/>
@@ -19983,7 +19983,7 @@
       <c r="AF306" s="34"/>
       <c r="AG306" s="38"/>
     </row>
-    <row r="307" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="24"/>
       <c r="B307" s="25"/>
       <c r="C307" s="24"/>
@@ -20018,7 +20018,7 @@
       <c r="AF307" s="25"/>
       <c r="AG307" s="29"/>
     </row>
-    <row r="308" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="33"/>
       <c r="B308" s="34"/>
       <c r="C308" s="33"/>
@@ -20053,7 +20053,7 @@
       <c r="AF308" s="34"/>
       <c r="AG308" s="38"/>
     </row>
-    <row r="309" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="24"/>
       <c r="B309" s="25"/>
       <c r="C309" s="24"/>
@@ -20088,7 +20088,7 @@
       <c r="AF309" s="25"/>
       <c r="AG309" s="29"/>
     </row>
-    <row r="310" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="33"/>
       <c r="B310" s="34"/>
       <c r="C310" s="33"/>
@@ -20123,7 +20123,7 @@
       <c r="AF310" s="34"/>
       <c r="AG310" s="38"/>
     </row>
-    <row r="311" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="24"/>
       <c r="B311" s="25"/>
       <c r="C311" s="24"/>
@@ -20158,7 +20158,7 @@
       <c r="AF311" s="25"/>
       <c r="AG311" s="29"/>
     </row>
-    <row r="312" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="33"/>
       <c r="B312" s="34"/>
       <c r="C312" s="33"/>
@@ -20193,7 +20193,7 @@
       <c r="AF312" s="34"/>
       <c r="AG312" s="38"/>
     </row>
-    <row r="313" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="24"/>
       <c r="B313" s="25"/>
       <c r="C313" s="24"/>
@@ -20228,7 +20228,7 @@
       <c r="AF313" s="25"/>
       <c r="AG313" s="29"/>
     </row>
-    <row r="314" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="33"/>
       <c r="B314" s="34"/>
       <c r="C314" s="33"/>
@@ -20263,7 +20263,7 @@
       <c r="AF314" s="34"/>
       <c r="AG314" s="38"/>
     </row>
-    <row r="315" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="24"/>
       <c r="B315" s="25"/>
       <c r="C315" s="24"/>
@@ -20298,7 +20298,7 @@
       <c r="AF315" s="25"/>
       <c r="AG315" s="29"/>
     </row>
-    <row r="316" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="33"/>
       <c r="B316" s="34"/>
       <c r="C316" s="33"/>
@@ -20333,7 +20333,7 @@
       <c r="AF316" s="34"/>
       <c r="AG316" s="38"/>
     </row>
-    <row r="317" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="24"/>
       <c r="B317" s="25"/>
       <c r="C317" s="24"/>
@@ -20368,7 +20368,7 @@
       <c r="AF317" s="25"/>
       <c r="AG317" s="29"/>
     </row>
-    <row r="318" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="33"/>
       <c r="B318" s="34"/>
       <c r="C318" s="33"/>
@@ -20403,7 +20403,7 @@
       <c r="AF318" s="34"/>
       <c r="AG318" s="38"/>
     </row>
-    <row r="319" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="24"/>
       <c r="B319" s="25"/>
       <c r="C319" s="24"/>
@@ -20438,7 +20438,7 @@
       <c r="AF319" s="25"/>
       <c r="AG319" s="29"/>
     </row>
-    <row r="320" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="33"/>
       <c r="B320" s="34"/>
       <c r="C320" s="33"/>
@@ -20473,7 +20473,7 @@
       <c r="AF320" s="34"/>
       <c r="AG320" s="38"/>
     </row>
-    <row r="321" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="24"/>
       <c r="B321" s="25"/>
       <c r="C321" s="24"/>
@@ -20508,7 +20508,7 @@
       <c r="AF321" s="25"/>
       <c r="AG321" s="29"/>
     </row>
-    <row r="322" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="33"/>
       <c r="B322" s="34"/>
       <c r="C322" s="33"/>
@@ -20543,7 +20543,7 @@
       <c r="AF322" s="34"/>
       <c r="AG322" s="38"/>
     </row>
-    <row r="323" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="24"/>
       <c r="B323" s="25"/>
       <c r="C323" s="24"/>
@@ -20578,7 +20578,7 @@
       <c r="AF323" s="25"/>
       <c r="AG323" s="29"/>
     </row>
-    <row r="324" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="33"/>
       <c r="B324" s="34"/>
       <c r="C324" s="33"/>
@@ -20613,7 +20613,7 @@
       <c r="AF324" s="34"/>
       <c r="AG324" s="38"/>
     </row>
-    <row r="325" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="24"/>
       <c r="B325" s="25"/>
       <c r="C325" s="24"/>
@@ -20648,7 +20648,7 @@
       <c r="AF325" s="25"/>
       <c r="AG325" s="29"/>
     </row>
-    <row r="326" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="33"/>
       <c r="B326" s="34"/>
       <c r="C326" s="33"/>
@@ -20683,7 +20683,7 @@
       <c r="AF326" s="34"/>
       <c r="AG326" s="38"/>
     </row>
-    <row r="327" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="24"/>
       <c r="B327" s="25"/>
       <c r="C327" s="24"/>
@@ -20718,7 +20718,7 @@
       <c r="AF327" s="25"/>
       <c r="AG327" s="29"/>
     </row>
-    <row r="328" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="33"/>
       <c r="B328" s="34"/>
       <c r="C328" s="33"/>
@@ -20753,7 +20753,7 @@
       <c r="AF328" s="34"/>
       <c r="AG328" s="38"/>
     </row>
-    <row r="329" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="24"/>
       <c r="B329" s="25"/>
       <c r="C329" s="24"/>
@@ -20788,7 +20788,7 @@
       <c r="AF329" s="25"/>
       <c r="AG329" s="29"/>
     </row>
-    <row r="330" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="33"/>
       <c r="B330" s="34"/>
       <c r="C330" s="33"/>
@@ -20823,7 +20823,7 @@
       <c r="AF330" s="34"/>
       <c r="AG330" s="38"/>
     </row>
-    <row r="331" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="24"/>
       <c r="B331" s="25"/>
       <c r="C331" s="24"/>
@@ -20858,7 +20858,7 @@
       <c r="AF331" s="25"/>
       <c r="AG331" s="29"/>
     </row>
-    <row r="332" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="33"/>
       <c r="B332" s="34"/>
       <c r="C332" s="33"/>
@@ -20893,7 +20893,7 @@
       <c r="AF332" s="34"/>
       <c r="AG332" s="38"/>
     </row>
-    <row r="333" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="24"/>
       <c r="B333" s="25"/>
       <c r="C333" s="24"/>
@@ -20928,7 +20928,7 @@
       <c r="AF333" s="25"/>
       <c r="AG333" s="29"/>
     </row>
-    <row r="334" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="33"/>
       <c r="B334" s="34"/>
       <c r="C334" s="33"/>
@@ -20963,7 +20963,7 @@
       <c r="AF334" s="34"/>
       <c r="AG334" s="38"/>
     </row>
-    <row r="335" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="24"/>
       <c r="B335" s="25"/>
       <c r="C335" s="24"/>
@@ -20998,7 +20998,7 @@
       <c r="AF335" s="25"/>
       <c r="AG335" s="29"/>
     </row>
-    <row r="336" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="33"/>
       <c r="B336" s="34"/>
       <c r="C336" s="33"/>
@@ -21033,7 +21033,7 @@
       <c r="AF336" s="34"/>
       <c r="AG336" s="38"/>
     </row>
-    <row r="337" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="24"/>
       <c r="B337" s="25"/>
       <c r="C337" s="24"/>
@@ -21068,7 +21068,7 @@
       <c r="AF337" s="25"/>
       <c r="AG337" s="29"/>
     </row>
-    <row r="338" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="33"/>
       <c r="B338" s="34"/>
       <c r="C338" s="33"/>
@@ -21103,7 +21103,7 @@
       <c r="AF338" s="34"/>
       <c r="AG338" s="38"/>
     </row>
-    <row r="339" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="24"/>
       <c r="B339" s="25"/>
       <c r="C339" s="24"/>
@@ -21138,7 +21138,7 @@
       <c r="AF339" s="25"/>
       <c r="AG339" s="29"/>
     </row>
-    <row r="340" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="33"/>
       <c r="B340" s="34"/>
       <c r="C340" s="33"/>
@@ -21173,7 +21173,7 @@
       <c r="AF340" s="34"/>
       <c r="AG340" s="38"/>
     </row>
-    <row r="341" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="24"/>
       <c r="B341" s="25"/>
       <c r="C341" s="24"/>
@@ -21208,7 +21208,7 @@
       <c r="AF341" s="25"/>
       <c r="AG341" s="29"/>
     </row>
-    <row r="342" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="33"/>
       <c r="B342" s="34"/>
       <c r="C342" s="33"/>
@@ -21243,7 +21243,7 @@
       <c r="AF342" s="34"/>
       <c r="AG342" s="38"/>
     </row>
-    <row r="343" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="24"/>
       <c r="B343" s="25"/>
       <c r="C343" s="24"/>
@@ -21278,7 +21278,7 @@
       <c r="AF343" s="25"/>
       <c r="AG343" s="29"/>
     </row>
-    <row r="344" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="33"/>
       <c r="B344" s="34"/>
       <c r="C344" s="33"/>
@@ -21313,7 +21313,7 @@
       <c r="AF344" s="34"/>
       <c r="AG344" s="38"/>
     </row>
-    <row r="345" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="24"/>
       <c r="B345" s="25"/>
       <c r="C345" s="24"/>
@@ -21348,7 +21348,7 @@
       <c r="AF345" s="25"/>
       <c r="AG345" s="29"/>
     </row>
-    <row r="346" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="33"/>
       <c r="B346" s="34"/>
       <c r="C346" s="33"/>
@@ -21383,7 +21383,7 @@
       <c r="AF346" s="34"/>
       <c r="AG346" s="38"/>
     </row>
-    <row r="347" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="24"/>
       <c r="B347" s="25"/>
       <c r="C347" s="24"/>
@@ -21418,7 +21418,7 @@
       <c r="AF347" s="25"/>
       <c r="AG347" s="29"/>
     </row>
-    <row r="348" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="33"/>
       <c r="B348" s="34"/>
       <c r="C348" s="33"/>
@@ -21453,7 +21453,7 @@
       <c r="AF348" s="34"/>
       <c r="AG348" s="38"/>
     </row>
-    <row r="349" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="24"/>
       <c r="B349" s="25"/>
       <c r="C349" s="24"/>
@@ -21488,7 +21488,7 @@
       <c r="AF349" s="25"/>
       <c r="AG349" s="29"/>
     </row>
-    <row r="350" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="33"/>
       <c r="B350" s="34"/>
       <c r="C350" s="33"/>
@@ -21523,7 +21523,7 @@
       <c r="AF350" s="34"/>
       <c r="AG350" s="38"/>
     </row>
-    <row r="351" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="24"/>
       <c r="B351" s="25"/>
       <c r="C351" s="24"/>
@@ -21558,7 +21558,7 @@
       <c r="AF351" s="25"/>
       <c r="AG351" s="29"/>
     </row>
-    <row r="352" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="33"/>
       <c r="B352" s="34"/>
       <c r="C352" s="33"/>
@@ -21593,7 +21593,7 @@
       <c r="AF352" s="34"/>
       <c r="AG352" s="38"/>
     </row>
-    <row r="353" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="24"/>
       <c r="B353" s="25"/>
       <c r="C353" s="24"/>
@@ -21628,7 +21628,7 @@
       <c r="AF353" s="25"/>
       <c r="AG353" s="29"/>
     </row>
-    <row r="354" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="33"/>
       <c r="B354" s="34"/>
       <c r="C354" s="33"/>
@@ -21663,7 +21663,7 @@
       <c r="AF354" s="34"/>
       <c r="AG354" s="38"/>
     </row>
-    <row r="355" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="24"/>
       <c r="B355" s="25"/>
       <c r="C355" s="24"/>
@@ -21698,7 +21698,7 @@
       <c r="AF355" s="25"/>
       <c r="AG355" s="29"/>
     </row>
-    <row r="356" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="33"/>
       <c r="B356" s="34"/>
       <c r="C356" s="33"/>
@@ -21733,7 +21733,7 @@
       <c r="AF356" s="34"/>
       <c r="AG356" s="38"/>
     </row>
-    <row r="357" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="24"/>
       <c r="B357" s="25"/>
       <c r="C357" s="24"/>
@@ -21768,7 +21768,7 @@
       <c r="AF357" s="25"/>
       <c r="AG357" s="29"/>
     </row>
-    <row r="358" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="33"/>
       <c r="B358" s="34"/>
       <c r="C358" s="33"/>
@@ -21803,7 +21803,7 @@
       <c r="AF358" s="34"/>
       <c r="AG358" s="38"/>
     </row>
-    <row r="359" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="24"/>
       <c r="B359" s="25"/>
       <c r="C359" s="24"/>
@@ -21838,7 +21838,7 @@
       <c r="AF359" s="25"/>
       <c r="AG359" s="29"/>
     </row>
-    <row r="360" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="33"/>
       <c r="B360" s="34"/>
       <c r="C360" s="33"/>
@@ -21873,7 +21873,7 @@
       <c r="AF360" s="34"/>
       <c r="AG360" s="38"/>
     </row>
-    <row r="361" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="24"/>
       <c r="B361" s="25"/>
       <c r="C361" s="24"/>
@@ -21908,7 +21908,7 @@
       <c r="AF361" s="25"/>
       <c r="AG361" s="29"/>
     </row>
-    <row r="362" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="33"/>
       <c r="B362" s="34"/>
       <c r="C362" s="33"/>
@@ -21943,7 +21943,7 @@
       <c r="AF362" s="34"/>
       <c r="AG362" s="38"/>
     </row>
-    <row r="363" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="24"/>
       <c r="B363" s="25"/>
       <c r="C363" s="24"/>
@@ -21978,7 +21978,7 @@
       <c r="AF363" s="25"/>
       <c r="AG363" s="29"/>
     </row>
-    <row r="364" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="33"/>
       <c r="B364" s="34"/>
       <c r="C364" s="33"/>
@@ -22013,7 +22013,7 @@
       <c r="AF364" s="34"/>
       <c r="AG364" s="38"/>
     </row>
-    <row r="365" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="24"/>
       <c r="B365" s="25"/>
       <c r="C365" s="24"/>
@@ -22048,7 +22048,7 @@
       <c r="AF365" s="25"/>
       <c r="AG365" s="29"/>
     </row>
-    <row r="366" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="33"/>
       <c r="B366" s="34"/>
       <c r="C366" s="33"/>
@@ -22083,7 +22083,7 @@
       <c r="AF366" s="34"/>
       <c r="AG366" s="38"/>
     </row>
-    <row r="367" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="24"/>
       <c r="B367" s="25"/>
       <c r="C367" s="24"/>
@@ -22118,7 +22118,7 @@
       <c r="AF367" s="25"/>
       <c r="AG367" s="29"/>
     </row>
-    <row r="368" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="33"/>
       <c r="B368" s="34"/>
       <c r="C368" s="33"/>
@@ -22153,7 +22153,7 @@
       <c r="AF368" s="34"/>
       <c r="AG368" s="38"/>
     </row>
-    <row r="369" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="24"/>
       <c r="B369" s="25"/>
       <c r="C369" s="24"/>
@@ -22188,7 +22188,7 @@
       <c r="AF369" s="25"/>
       <c r="AG369" s="29"/>
     </row>
-    <row r="370" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="33"/>
       <c r="B370" s="34"/>
       <c r="C370" s="33"/>
@@ -22223,7 +22223,7 @@
       <c r="AF370" s="34"/>
       <c r="AG370" s="38"/>
     </row>
-    <row r="371" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="24"/>
       <c r="B371" s="25"/>
       <c r="C371" s="24"/>
@@ -22258,7 +22258,7 @@
       <c r="AF371" s="25"/>
       <c r="AG371" s="29"/>
     </row>
-    <row r="372" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="33"/>
       <c r="B372" s="34"/>
       <c r="C372" s="33"/>
@@ -22293,7 +22293,7 @@
       <c r="AF372" s="34"/>
       <c r="AG372" s="38"/>
     </row>
-    <row r="373" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="24"/>
       <c r="B373" s="25"/>
       <c r="C373" s="24"/>
@@ -22328,7 +22328,7 @@
       <c r="AF373" s="25"/>
       <c r="AG373" s="29"/>
     </row>
-    <row r="374" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="46"/>
       <c r="B374" s="46"/>
       <c r="C374" s="46"/>
@@ -22363,9 +22363,9 @@
       <c r="AF374" s="46"/>
       <c r="AG374" s="46"/>
     </row>
-    <row r="376" spans="1:33" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="1:33" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="1:33" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:33" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A4:C5"/>
